--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_1_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_1_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>415080.6341770316</v>
+        <v>418796.2387407288</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>714286.6128340093</v>
+        <v>714286.6128340089</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7554446.892829806</v>
+        <v>7554446.892829804</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>98.42631755959526</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>344.8238163993337</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -738,22 +740,22 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>121.5789354633579</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
         <v>67.69846245683961</v>
@@ -795,7 +797,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>15.74533392750712</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
         <v>238.9027100790231</v>
@@ -829,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.7420538716369</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>147.8649255692296</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
-        <v>142.421855656164</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>218.8580034825794</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>8.607073107491731</v>
+        <v>53.64545635071116</v>
       </c>
       <c r="D6" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
         <v>133.3468600696244</v>
@@ -1041,7 +1043,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.7420538716369</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
         <v>59.456666199969</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>135.0732474996737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>376.6178174969332</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>175.7372121288973</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1215,22 +1217,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>54.52513321799584</v>
       </c>
       <c r="E9" t="n">
-        <v>44.13038285387185</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,7 +1265,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.8094855920946</v>
       </c>
       <c r="T11" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
-        <v>336.9515530613699</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>118.1202051047698</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1506,7 +1508,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V12" t="n">
-        <v>89.16100958994357</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
         <v>238.9027100790231</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.7420538716369</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>142.7610139533483</v>
+        <v>69.53079011854132</v>
       </c>
       <c r="J13" t="n">
         <v>59.456666199969</v>
@@ -1570,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>110.6220159469542</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>218.3273332069601</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.44370899209961</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
         <v>160.0866360314548</v>
@@ -1692,16 +1694,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>118.1202051047698</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
         <v>151.2714921173871</v>
@@ -1752,7 +1754,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="16">
@@ -1777,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.7420538716369</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>128.9874563185103</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1847,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>325.224086848979</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>218.3273332069601</v>
       </c>
     </row>
     <row r="18">
@@ -1929,13 +1931,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>118.1202051047698</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1968,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5421630255637</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
@@ -2056,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>243.4438153256983</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2084,10 +2086,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2096,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,16 +2140,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>28.54055820271616</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>218.3273332069601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2169,16 +2171,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>31.7489014770761</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>216.3098444776729</v>
+        <v>99.51704826962602</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>16.65050015506385</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T22" t="n">
-        <v>61.72400032816227</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2321,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>346.9662244188846</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>410.0096787829314</v>
@@ -2333,10 +2335,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H23" t="n">
-        <v>329.4930616586638</v>
+        <v>89.91818122127236</v>
       </c>
       <c r="I23" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -2397,7 +2399,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
-        <v>160.0866360314548</v>
+        <v>5.207896315578957</v>
       </c>
       <c r="D24" t="n">
         <v>137.45025063969</v>
@@ -2406,16 +2408,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U24" t="n">
         <v>216.3098444776729</v>
@@ -2457,7 +2459,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
-        <v>30.02484796959267</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
         <v>195.9378182409833</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>125.2040305762914</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>84.31882417064588</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>125.4345243350548</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H26" t="n">
-        <v>303.1727360664845</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S26" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,19 +2684,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>186.7982527956746</v>
+        <v>10.09209246479641</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W27" t="n">
-        <v>59.53643965159095</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X27" t="n">
         <v>195.9378182409833</v>
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>151.5411742405149</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>90.87914143716708</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.2776687100217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>288.1590597432774</v>
+        <v>236.8966213572477</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="30">
@@ -2880,10 +2882,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
-        <v>151.2714921173871</v>
+        <v>123.8339673784596</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V30" t="n">
-        <v>183.8707455523276</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W30" t="n">
         <v>238.9027100790231</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>48.79589417666581</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.0380364259622</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>299.6523457554197</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>357.854103123505</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3089,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -3156,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U33" t="n">
-        <v>158.7034744856297</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>226.1116663261494</v>
+        <v>46.74539589871718</v>
       </c>
       <c r="W33" t="n">
         <v>238.9027100790231</v>
@@ -3187,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>40.63244338022731</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>30.84765070733263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3314,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>49.67313607245117</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>135.8244104373017</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3390,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U36" t="n">
-        <v>158.7034744856297</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W36" t="n">
-        <v>238.9027100790231</v>
+        <v>0.3500134355872933</v>
       </c>
       <c r="X36" t="n">
         <v>195.9378182409833</v>
@@ -3466,25 +3468,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.0140198902759</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>50.13549759392411</v>
       </c>
       <c r="E38" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>235.356961190757</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3588,16 +3590,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
-        <v>109.6081688639339</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
         <v>67.69846245683961</v>
@@ -3630,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>216.3098444776729</v>
+        <v>158.7034744856297</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -3661,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>13.480376214104</v>
       </c>
       <c r="D40" t="n">
-        <v>58.06332912686938</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>78.5960291053654</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>78.59602910536552</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3834,10 +3836,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>118.1701367888742</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>216.3098444776729</v>
+        <v>158.7034744856297</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -3882,7 +3884,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y42" t="n">
         <v>190.5961130869169</v>
@@ -3940,28 +3942,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X43" t="n">
-        <v>18.88606849311432</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>410.0096787829314</v>
+        <v>382.8139134147171</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>78.50061111216463</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -4068,13 +4070,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>151.2714921173871</v>
+        <v>49.67353352483909</v>
       </c>
       <c r="T45" t="n">
         <v>186.7982527956746</v>
@@ -4113,10 +4115,10 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W45" t="n">
-        <v>69.33826150006736</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X45" t="n">
         <v>195.9378182409833</v>
@@ -4138,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>57.01107898264892</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>39.67076193273343</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4192,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1191.567699435062</v>
+        <v>141.4447788886692</v>
       </c>
       <c r="C2" t="n">
-        <v>809.6339407678688</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D2" t="n">
-        <v>436.8099759950924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E2" t="n">
         <v>42.02425610119923</v>
@@ -4328,7 +4330,7 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J2" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K2" t="n">
         <v>354.1631724187873</v>
@@ -4352,28 +4354,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R2" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S2" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T2" t="n">
-        <v>1876.853858790972</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U2" t="n">
-        <v>1876.853858790972</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V2" t="n">
-        <v>1539.874584686914</v>
+        <v>1673.595244451756</v>
       </c>
       <c r="W2" t="n">
-        <v>1539.874584686914</v>
+        <v>1311.060314309357</v>
       </c>
       <c r="X2" t="n">
-        <v>1539.874584686914</v>
+        <v>929.0301738308503</v>
       </c>
       <c r="Y2" t="n">
-        <v>1191.567699435062</v>
+        <v>535.4883184066883</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>674.3711492068126</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C3" t="n">
-        <v>512.6674764477673</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="D3" t="n">
-        <v>373.8288394379794</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="E3" t="n">
-        <v>373.8288394379794</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="F3" t="n">
-        <v>239.1350413878537</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G3" t="n">
-        <v>110.4065414111382</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H3" t="n">
         <v>110.4065414111382</v>
@@ -4410,19 +4412,19 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K3" t="n">
-        <v>102.2784026343054</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L3" t="n">
-        <v>468.100247804421</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M3" t="n">
-        <v>953.1336013146474</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N3" t="n">
-        <v>1464.39924743777</v>
+        <v>1551.241224490216</v>
       </c>
       <c r="O3" t="n">
-        <v>1856.59919822192</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="P3" t="n">
         <v>1943.441175274367</v>
@@ -4443,16 +4445,16 @@
         <v>1481.449152931943</v>
       </c>
       <c r="V3" t="n">
-        <v>1465.54477522739</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W3" t="n">
-        <v>1224.2289064607</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X3" t="n">
-        <v>1026.311918338494</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y3" t="n">
-        <v>833.7905919880734</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C4" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D4" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E4" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F4" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G4" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H4" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I4" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J4" t="n">
         <v>42.02425610119923</v>
@@ -4510,28 +4512,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R4" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S4" t="n">
-        <v>574.0835013471317</v>
+        <v>275.2032092855204</v>
       </c>
       <c r="T4" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U4" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V4" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W4" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X4" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y4" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>962.6041949210367</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="C5" t="n">
-        <v>580.6704362538439</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="D5" t="n">
-        <v>580.6704362538439</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="E5" t="n">
-        <v>185.8847163599508</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="F5" t="n">
-        <v>185.8847163599508</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G5" t="n">
-        <v>185.8847163599508</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H5" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I5" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J5" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K5" t="n">
         <v>354.1631724187873</v>
@@ -4589,28 +4591,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R5" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S5" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T5" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U5" t="n">
-        <v>2101.212805059961</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="V5" t="n">
-        <v>2101.212805059961</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="W5" t="n">
-        <v>1738.677874917562</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="X5" t="n">
-        <v>1356.647734439056</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="Y5" t="n">
-        <v>1356.647734439056</v>
+        <v>1377.917906530736</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.2993471409599</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="C6" t="n">
-        <v>612.6053339010692</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D6" t="n">
-        <v>473.7666968912813</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E6" t="n">
         <v>473.7666968912813</v>
@@ -4650,19 +4652,19 @@
         <v>102.2784026343054</v>
       </c>
       <c r="L6" t="n">
-        <v>252.8463055811703</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M6" t="n">
-        <v>737.8796590913968</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N6" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O6" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P6" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q6" t="n">
         <v>2101.212805059961</v>
@@ -4689,7 +4691,7 @@
         <v>813.8206734913811</v>
       </c>
       <c r="Y6" t="n">
-        <v>621.2993471409599</v>
+        <v>813.8206734913811</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>254.0905089257077</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C7" t="n">
-        <v>254.0905089257077</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="D7" t="n">
-        <v>254.0905089257077</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="E7" t="n">
-        <v>102.0814946870265</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="F7" t="n">
-        <v>102.0814946870265</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="G7" t="n">
-        <v>102.0814946870265</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="H7" t="n">
-        <v>102.0814946870265</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I7" t="n">
         <v>102.0814946870265</v>
@@ -4768,7 +4770,7 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Y7" t="n">
-        <v>437.6458776100875</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>788.9967211937196</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C8" t="n">
-        <v>788.9967211937196</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D8" t="n">
-        <v>788.9967211937196</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E8" t="n">
-        <v>788.9967211937196</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F8" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G8" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
         <v>42.02425610119923</v>
@@ -4811,10 +4813,10 @@
         <v>702.048545503734</v>
       </c>
       <c r="M8" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N8" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O8" t="n">
         <v>1778.623654917371</v>
@@ -4826,28 +4828,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>1913.983829690315</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T8" t="n">
-        <v>1913.983829690315</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U8" t="n">
-        <v>1913.983829690315</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V8" t="n">
-        <v>1913.983829690315</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="W8" t="n">
-        <v>1551.448899547916</v>
+        <v>829.6096510433804</v>
       </c>
       <c r="X8" t="n">
-        <v>1169.41875906941</v>
+        <v>829.6096510433804</v>
       </c>
       <c r="Y8" t="n">
-        <v>1169.41875906941</v>
+        <v>436.0677956192184</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>650.5650081937138</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C9" t="n">
-        <v>488.8613354346685</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D9" t="n">
-        <v>350.0226984248806</v>
+        <v>245.1003394612639</v>
       </c>
       <c r="E9" t="n">
-        <v>305.4465541280403</v>
+        <v>245.1003394612639</v>
       </c>
       <c r="F9" t="n">
-        <v>170.7527560779147</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="G9" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H9" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M9" t="n">
-        <v>1182.624153874836</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N9" t="n">
         <v>1249.145305214519</v>
@@ -4911,22 +4913,22 @@
         <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1888.629049167647</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1670.134256765957</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V9" t="n">
-        <v>1441.738634214291</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1200.422765447601</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X9" t="n">
-        <v>1002.505777325396</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y9" t="n">
-        <v>809.9844509749746</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="10">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1142.45521517056</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C11" t="n">
-        <v>1142.45521517056</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D11" t="n">
-        <v>769.6312503977831</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E11" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F11" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G11" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H11" t="n">
         <v>42.02425610119923</v>
@@ -5039,19 +5041,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J11" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K11" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L11" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M11" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N11" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O11" t="n">
         <v>1778.623654917371</v>
@@ -5066,25 +5068,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S11" t="n">
-        <v>2101.212805059961</v>
+        <v>1996.35473880532</v>
       </c>
       <c r="T11" t="n">
-        <v>1876.853858790972</v>
+        <v>1771.995792536331</v>
       </c>
       <c r="U11" t="n">
-        <v>1876.853858790972</v>
+        <v>1517.110456250326</v>
       </c>
       <c r="V11" t="n">
-        <v>1876.853858790972</v>
+        <v>1180.131182146267</v>
       </c>
       <c r="W11" t="n">
-        <v>1536.498754688579</v>
+        <v>817.5962520038679</v>
       </c>
       <c r="X11" t="n">
-        <v>1536.498754688579</v>
+        <v>435.5661115253612</v>
       </c>
       <c r="Y11" t="n">
-        <v>1536.498754688579</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>759.6333438441981</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C12" t="n">
-        <v>759.6333438441981</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D12" t="n">
-        <v>620.7947068344101</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E12" t="n">
-        <v>473.7666968912813</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F12" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G12" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H12" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I12" t="n">
         <v>42.02425610119923</v>
@@ -5154,16 +5156,16 @@
         <v>1481.449152931943</v>
       </c>
       <c r="V12" t="n">
-        <v>1391.387527083515</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W12" t="n">
-        <v>1150.071658316825</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X12" t="n">
-        <v>952.1546701946193</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y12" t="n">
-        <v>759.6333438441981</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="C13" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="D13" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="E13" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="F13" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="G13" t="n">
-        <v>405.6571843050742</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="H13" t="n">
-        <v>246.284539084348</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="I13" t="n">
         <v>102.0814946870265</v>
@@ -5218,31 +5220,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q13" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R13" t="n">
-        <v>574.0835013471317</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S13" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="T13" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="U13" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="V13" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="W13" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="X13" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="Y13" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1344.634335399543</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C14" t="n">
-        <v>962.7005767323506</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D14" t="n">
-        <v>962.7005767323506</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E14" t="n">
-        <v>567.9148568384574</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F14" t="n">
-        <v>153.7636661486277</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G14" t="n">
-        <v>153.7636661486277</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H14" t="n">
-        <v>153.7636661486277</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I14" t="n">
         <v>42.02425610119923</v>
@@ -5300,28 +5302,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R14" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S14" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T14" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U14" t="n">
-        <v>2101.212805059961</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V14" t="n">
-        <v>2101.212805059961</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="W14" t="n">
-        <v>1738.677874917562</v>
+        <v>644.5870563847161</v>
       </c>
       <c r="X14" t="n">
-        <v>1738.677874917562</v>
+        <v>262.5569159062094</v>
       </c>
       <c r="Y14" t="n">
-        <v>1738.677874917562</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>852.9547312933042</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C15" t="n">
-        <v>691.251058534259</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D15" t="n">
-        <v>552.412421524471</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E15" t="n">
-        <v>405.3844115813423</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F15" t="n">
-        <v>270.6906135312166</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G15" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H15" t="n">
         <v>42.02425610119923</v>
@@ -5361,46 +5363,46 @@
         <v>271.5148086613879</v>
       </c>
       <c r="L15" t="n">
-        <v>271.5148086613879</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M15" t="n">
-        <v>756.5481621716143</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N15" t="n">
-        <v>1267.813808294736</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O15" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P15" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q15" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R15" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S15" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T15" t="n">
-        <v>1759.728214238687</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U15" t="n">
-        <v>1541.233421836997</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V15" t="n">
-        <v>1312.837799285331</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.521930518641</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X15" t="n">
-        <v>873.6049423964351</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y15" t="n">
-        <v>873.6049423964351</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G16" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H16" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I16" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J16" t="n">
         <v>42.02425610119923</v>
@@ -5455,31 +5457,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q16" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R16" t="n">
-        <v>574.0835013471317</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S16" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="T16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C17" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D17" t="n">
-        <v>1772.703626424629</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E17" t="n">
-        <v>1377.917906530736</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F17" t="n">
-        <v>963.766715840906</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G17" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H17" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I17" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J17" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K17" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L17" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M17" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N17" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O17" t="n">
         <v>1778.623654917371</v>
@@ -5537,28 +5539,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R17" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S17" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T17" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U17" t="n">
-        <v>2101.212805059961</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V17" t="n">
-        <v>2101.212805059961</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="W17" t="n">
-        <v>2101.212805059961</v>
+        <v>644.5870563847161</v>
       </c>
       <c r="X17" t="n">
-        <v>2101.212805059961</v>
+        <v>262.5569159062094</v>
       </c>
       <c r="Y17" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>753.0168738400023</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C18" t="n">
-        <v>591.313201080957</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D18" t="n">
-        <v>452.4745640711691</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E18" t="n">
-        <v>305.4465541280403</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F18" t="n">
-        <v>170.7527560779147</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G18" t="n">
         <v>42.02425610119923</v>
@@ -5595,49 +5597,49 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K18" t="n">
-        <v>42.02425610119923</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L18" t="n">
-        <v>252.8463055811703</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M18" t="n">
-        <v>737.8796590913968</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N18" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O18" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P18" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q18" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R18" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S18" t="n">
-        <v>1961.271226246261</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T18" t="n">
-        <v>1772.586122412246</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U18" t="n">
-        <v>1772.586122412246</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V18" t="n">
-        <v>1544.19049986058</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W18" t="n">
-        <v>1302.87463109389</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X18" t="n">
-        <v>1104.957642971684</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y18" t="n">
-        <v>912.4363166212631</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="19">
@@ -5704,10 +5706,10 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U19" t="n">
-        <v>328.1806575838001</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V19" t="n">
-        <v>328.1806575838001</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W19" t="n">
         <v>42.02425610119923</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42.02425610119923</v>
+        <v>1315.272413961764</v>
       </c>
       <c r="C20" t="n">
-        <v>42.02425610119923</v>
+        <v>1315.272413961764</v>
       </c>
       <c r="D20" t="n">
-        <v>42.02425610119923</v>
+        <v>942.4484491889871</v>
       </c>
       <c r="E20" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="F20" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="G20" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H20" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I20" t="n">
         <v>42.02425610119923</v>
@@ -5786,16 +5788,16 @@
         <v>1344.101260631174</v>
       </c>
       <c r="V20" t="n">
-        <v>1007.121986527115</v>
+        <v>1315.272413961764</v>
       </c>
       <c r="W20" t="n">
-        <v>644.5870563847161</v>
+        <v>1315.272413961764</v>
       </c>
       <c r="X20" t="n">
-        <v>262.5569159062094</v>
+        <v>1315.272413961764</v>
       </c>
       <c r="Y20" t="n">
-        <v>42.02425610119923</v>
+        <v>1315.272413961764</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>489.5945758131612</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C21" t="n">
-        <v>327.8909030541159</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D21" t="n">
-        <v>189.052266044328</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E21" t="n">
-        <v>42.02425610119923</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F21" t="n">
-        <v>42.02425610119923</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G21" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H21" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I21" t="n">
         <v>42.02425610119923</v>
@@ -5835,46 +5837,46 @@
         <v>42.02425610119923</v>
       </c>
       <c r="L21" t="n">
-        <v>407.8461012713149</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M21" t="n">
-        <v>892.8794547815413</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N21" t="n">
-        <v>1404.145100904663</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O21" t="n">
-        <v>1796.345051688814</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P21" t="n">
-        <v>2098.440970964512</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q21" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R21" t="n">
-        <v>2069.143207608369</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S21" t="n">
-        <v>1916.343720621109</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T21" t="n">
-        <v>1727.658616787095</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="U21" t="n">
-        <v>1509.163824385405</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V21" t="n">
-        <v>1280.768201833739</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W21" t="n">
-        <v>1039.452333067049</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X21" t="n">
-        <v>841.5353449448434</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y21" t="n">
-        <v>649.0140185944222</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.02425610119923</v>
+        <v>210.8519573651974</v>
       </c>
       <c r="C22" t="n">
-        <v>42.02425610119923</v>
+        <v>210.8519573651974</v>
       </c>
       <c r="D22" t="n">
-        <v>42.02425610119923</v>
+        <v>210.8519573651974</v>
       </c>
       <c r="E22" t="n">
-        <v>42.02425610119923</v>
+        <v>58.84294312651625</v>
       </c>
       <c r="F22" t="n">
-        <v>42.02425610119923</v>
+        <v>58.84294312651625</v>
       </c>
       <c r="G22" t="n">
         <v>42.02425610119923</v>
@@ -5932,28 +5934,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R22" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S22" t="n">
-        <v>574.0835013471317</v>
+        <v>210.8519573651974</v>
       </c>
       <c r="T22" t="n">
-        <v>511.7360262681799</v>
+        <v>210.8519573651974</v>
       </c>
       <c r="U22" t="n">
-        <v>511.7360262681799</v>
+        <v>210.8519573651974</v>
       </c>
       <c r="V22" t="n">
-        <v>511.7360262681799</v>
+        <v>210.8519573651974</v>
       </c>
       <c r="W22" t="n">
-        <v>225.5796247855791</v>
+        <v>210.8519573651974</v>
       </c>
       <c r="X22" t="n">
-        <v>225.5796247855791</v>
+        <v>210.8519573651974</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.5796247855791</v>
+        <v>210.8519573651974</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2101.212805059961</v>
+        <v>963.1058790148937</v>
       </c>
       <c r="C23" t="n">
-        <v>2101.212805059961</v>
+        <v>963.1058790148937</v>
       </c>
       <c r="D23" t="n">
-        <v>1728.388840287185</v>
+        <v>963.1058790148937</v>
       </c>
       <c r="E23" t="n">
-        <v>1377.917906530736</v>
+        <v>963.1058790148937</v>
       </c>
       <c r="F23" t="n">
-        <v>963.766715840906</v>
+        <v>548.9546883250641</v>
       </c>
       <c r="G23" t="n">
-        <v>547.662729295094</v>
+        <v>132.8507017792521</v>
       </c>
       <c r="H23" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I23" t="n">
         <v>42.02425610119923</v>
@@ -6026,13 +6028,13 @@
         <v>2101.212805059961</v>
       </c>
       <c r="W23" t="n">
-        <v>2101.212805059961</v>
+        <v>1738.677874917562</v>
       </c>
       <c r="X23" t="n">
-        <v>2101.212805059961</v>
+        <v>1356.647734439056</v>
       </c>
       <c r="Y23" t="n">
-        <v>2101.212805059961</v>
+        <v>963.1058790148937</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>921.3370166032433</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C24" t="n">
-        <v>759.6333438441981</v>
+        <v>456.6194030308313</v>
       </c>
       <c r="D24" t="n">
-        <v>620.7947068344101</v>
+        <v>317.7807660210434</v>
       </c>
       <c r="E24" t="n">
-        <v>473.7666968912813</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="F24" t="n">
-        <v>339.0728988411556</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="G24" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I24" t="n">
         <v>42.02425610119923</v>
@@ -6069,49 +6071,49 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K24" t="n">
-        <v>42.02425610119923</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L24" t="n">
-        <v>252.8463055811703</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M24" t="n">
-        <v>737.8796590913968</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N24" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O24" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P24" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q24" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R24" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S24" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T24" t="n">
-        <v>1948.413318072701</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U24" t="n">
-        <v>1729.918525671012</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V24" t="n">
-        <v>1501.522903119346</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W24" t="n">
-        <v>1471.194773857131</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X24" t="n">
-        <v>1273.277785734925</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y24" t="n">
-        <v>1080.756459384504</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.4929738550289</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C25" t="n">
-        <v>168.4929738550289</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D25" t="n">
-        <v>168.4929738550289</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E25" t="n">
-        <v>168.4929738550289</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F25" t="n">
-        <v>168.4929738550289</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G25" t="n">
         <v>42.02425610119923</v>
@@ -6172,25 +6174,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S25" t="n">
-        <v>574.0835013471317</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="T25" t="n">
-        <v>574.0835013471317</v>
+        <v>127.1947855664981</v>
       </c>
       <c r="U25" t="n">
-        <v>574.0835013471317</v>
+        <v>127.1947855664981</v>
       </c>
       <c r="V25" t="n">
-        <v>574.0835013471317</v>
+        <v>127.1947855664981</v>
       </c>
       <c r="W25" t="n">
-        <v>574.0835013471317</v>
+        <v>127.1947855664981</v>
       </c>
       <c r="X25" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y25" t="n">
-        <v>352.0483425394087</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>348.2593430370422</v>
+        <v>979.615502273283</v>
       </c>
       <c r="C26" t="n">
-        <v>348.2593430370422</v>
+        <v>979.615502273283</v>
       </c>
       <c r="D26" t="n">
-        <v>348.2593430370422</v>
+        <v>979.615502273283</v>
       </c>
       <c r="E26" t="n">
-        <v>348.2593430370422</v>
+        <v>584.8297823793898</v>
       </c>
       <c r="F26" t="n">
-        <v>348.2593430370422</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G26" t="n">
-        <v>348.2593430370422</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H26" t="n">
         <v>42.02425610119923</v>
@@ -6251,25 +6253,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S26" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T26" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U26" t="n">
-        <v>1823.345543186168</v>
+        <v>1755.689182269809</v>
       </c>
       <c r="V26" t="n">
-        <v>1486.36626908211</v>
+        <v>1755.689182269809</v>
       </c>
       <c r="W26" t="n">
-        <v>1123.831338939711</v>
+        <v>1755.689182269809</v>
       </c>
       <c r="X26" t="n">
-        <v>741.8011984612042</v>
+        <v>1373.659041791302</v>
       </c>
       <c r="Y26" t="n">
-        <v>348.2593430370422</v>
+        <v>1373.659041791302</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>921.3370166032433</v>
+        <v>852.9547312933042</v>
       </c>
       <c r="C27" t="n">
-        <v>759.6333438441981</v>
+        <v>691.251058534259</v>
       </c>
       <c r="D27" t="n">
-        <v>620.7947068344101</v>
+        <v>552.412421524471</v>
       </c>
       <c r="E27" t="n">
-        <v>473.7666968912813</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F27" t="n">
-        <v>339.0728988411556</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G27" t="n">
-        <v>210.3443988644402</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H27" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I27" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L27" t="n">
-        <v>468.100247804421</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M27" t="n">
-        <v>953.1336013146474</v>
+        <v>892.8794547815413</v>
       </c>
       <c r="N27" t="n">
-        <v>1249.145305214519</v>
+        <v>1404.145100904663</v>
       </c>
       <c r="O27" t="n">
-        <v>1641.34525599867</v>
+        <v>1796.345051688814</v>
       </c>
       <c r="P27" t="n">
-        <v>1943.441175274367</v>
+        <v>2098.440970964512</v>
       </c>
       <c r="Q27" t="n">
         <v>2101.212805059961</v>
@@ -6330,25 +6332,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S27" t="n">
-        <v>1948.413318072701</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T27" t="n">
-        <v>1759.728214238687</v>
+        <v>2091.018772267238</v>
       </c>
       <c r="U27" t="n">
-        <v>1759.728214238687</v>
+        <v>1872.523979865548</v>
       </c>
       <c r="V27" t="n">
-        <v>1531.332591687021</v>
+        <v>1644.128357313882</v>
       </c>
       <c r="W27" t="n">
-        <v>1471.194773857131</v>
+        <v>1402.812488547192</v>
       </c>
       <c r="X27" t="n">
-        <v>1273.277785734925</v>
+        <v>1204.895500424986</v>
       </c>
       <c r="Y27" t="n">
-        <v>1080.756459384504</v>
+        <v>1012.374174074565</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1891.841422524586</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="C28" t="n">
-        <v>1722.225452986266</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="D28" t="n">
-        <v>1569.153559814029</v>
+        <v>133.8213686639943</v>
       </c>
       <c r="E28" t="n">
-        <v>1569.153559814029</v>
+        <v>133.8213686639943</v>
       </c>
       <c r="F28" t="n">
-        <v>1569.153559814029</v>
+        <v>133.8213686639943</v>
       </c>
       <c r="G28" t="n">
-        <v>1569.153559814029</v>
+        <v>133.8213686639943</v>
       </c>
       <c r="H28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K28" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L28" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M28" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N28" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O28" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U28" t="n">
-        <v>2101.212805059961</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V28" t="n">
-        <v>2101.212805059961</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W28" t="n">
-        <v>2101.212805059961</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="X28" t="n">
-        <v>2101.212805059961</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="Y28" t="n">
-        <v>1891.841422524586</v>
+        <v>286.8932618362315</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1689.624883421327</v>
+        <v>1090.250683207395</v>
       </c>
       <c r="C29" t="n">
-        <v>1398.555126104885</v>
+        <v>850.9611666849221</v>
       </c>
       <c r="D29" t="n">
-        <v>1025.731161332108</v>
+        <v>850.9611666849221</v>
       </c>
       <c r="E29" t="n">
-        <v>630.9454414382152</v>
+        <v>456.1754467910289</v>
       </c>
       <c r="F29" t="n">
-        <v>630.9454414382152</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G29" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H29" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I29" t="n">
         <v>42.02425610119923</v>
@@ -6488,25 +6490,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S29" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T29" t="n">
-        <v>1689.624883421327</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U29" t="n">
-        <v>1689.624883421327</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="V29" t="n">
-        <v>1689.624883421327</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="W29" t="n">
-        <v>1689.624883421327</v>
+        <v>1483.792538631556</v>
       </c>
       <c r="X29" t="n">
-        <v>1689.624883421327</v>
+        <v>1483.792538631556</v>
       </c>
       <c r="Y29" t="n">
-        <v>1689.624883421327</v>
+        <v>1090.250683207395</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>753.0168738400023</v>
+        <v>489.5945758131612</v>
       </c>
       <c r="C30" t="n">
-        <v>591.313201080957</v>
+        <v>327.8909030541159</v>
       </c>
       <c r="D30" t="n">
-        <v>452.4745640711691</v>
+        <v>189.052266044328</v>
       </c>
       <c r="E30" t="n">
-        <v>305.4465541280403</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F30" t="n">
-        <v>170.7527560779147</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G30" t="n">
         <v>42.02425610119923</v>
@@ -6543,49 +6545,49 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K30" t="n">
-        <v>42.02425610119923</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L30" t="n">
-        <v>252.8463055811703</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M30" t="n">
-        <v>737.8796590913968</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N30" t="n">
-        <v>1249.145305214519</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O30" t="n">
-        <v>1641.34525599867</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P30" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q30" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R30" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S30" t="n">
-        <v>1948.413318072701</v>
+        <v>1916.343720621109</v>
       </c>
       <c r="T30" t="n">
-        <v>1948.413318072701</v>
+        <v>1727.658616787095</v>
       </c>
       <c r="U30" t="n">
-        <v>1729.918525671012</v>
+        <v>1509.163824385405</v>
       </c>
       <c r="V30" t="n">
-        <v>1544.19049986058</v>
+        <v>1280.768201833739</v>
       </c>
       <c r="W30" t="n">
-        <v>1302.87463109389</v>
+        <v>1039.452333067049</v>
       </c>
       <c r="X30" t="n">
-        <v>1104.957642971684</v>
+        <v>841.5353449448434</v>
       </c>
       <c r="Y30" t="n">
-        <v>912.4363166212631</v>
+        <v>649.0140185944222</v>
       </c>
     </row>
     <row r="31">
@@ -6646,25 +6648,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S31" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T31" t="n">
-        <v>302.7595605427766</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U31" t="n">
-        <v>302.7595605427766</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V31" t="n">
-        <v>42.02425610119923</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="W31" t="n">
-        <v>42.02425610119923</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="X31" t="n">
-        <v>42.02425610119923</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="Y31" t="n">
-        <v>42.02425610119923</v>
+        <v>91.31303809783137</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1707.169265541942</v>
+        <v>344.7033932278858</v>
       </c>
       <c r="C32" t="n">
-        <v>1325.235506874749</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D32" t="n">
-        <v>1325.235506874749</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E32" t="n">
-        <v>1325.235506874749</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F32" t="n">
-        <v>963.766715840906</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G32" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H32" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I32" t="n">
         <v>42.02425610119923</v>
@@ -6701,16 +6703,16 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K32" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L32" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M32" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N32" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O32" t="n">
         <v>1778.623654917371</v>
@@ -6728,22 +6730,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T32" t="n">
-        <v>2101.212805059961</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U32" t="n">
-        <v>2101.212805059961</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="V32" t="n">
-        <v>2101.212805059961</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="W32" t="n">
-        <v>2101.212805059961</v>
+        <v>1514.318928648574</v>
       </c>
       <c r="X32" t="n">
-        <v>2101.212805059961</v>
+        <v>1132.288788170067</v>
       </c>
       <c r="Y32" t="n">
-        <v>2101.212805059961</v>
+        <v>738.7469327459049</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6782,19 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K33" t="n">
-        <v>331.768955194494</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L33" t="n">
-        <v>697.5908003646097</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M33" t="n">
-        <v>1182.624153874836</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N33" t="n">
-        <v>1693.889799997958</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O33" t="n">
-        <v>2086.089750782109</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P33" t="n">
         <v>2101.212805059961</v>
@@ -6804,13 +6806,13 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S33" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T33" t="n">
-        <v>2101.212805059961</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U33" t="n">
-        <v>1940.906265175487</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="V33" t="n">
         <v>1712.510642623821</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1569.153559814029</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="C34" t="n">
-        <v>1569.153559814029</v>
+        <v>1931.596835521642</v>
       </c>
       <c r="D34" t="n">
-        <v>1569.153559814029</v>
+        <v>1931.596835521642</v>
       </c>
       <c r="E34" t="n">
-        <v>1569.153559814029</v>
+        <v>1890.553963420402</v>
       </c>
       <c r="F34" t="n">
-        <v>1569.153559814029</v>
+        <v>1738.073308446179</v>
       </c>
       <c r="G34" t="n">
         <v>1569.153559814029</v>
@@ -6883,25 +6885,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S34" t="n">
-        <v>1887.503042463649</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T34" t="n">
-        <v>1887.503042463649</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U34" t="n">
-        <v>1600.312802952749</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V34" t="n">
-        <v>1600.312802952749</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W34" t="n">
-        <v>1600.312802952749</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.312802952749</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Y34" t="n">
-        <v>1569.153559814029</v>
+        <v>2101.212805059961</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>872.2794333368408</v>
+        <v>1627.03715677681</v>
       </c>
       <c r="C35" t="n">
-        <v>872.2794333368408</v>
+        <v>1245.103398109617</v>
       </c>
       <c r="D35" t="n">
         <v>872.2794333368408</v>
@@ -6962,25 +6964,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S35" t="n">
-        <v>2051.037920138293</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T35" t="n">
-        <v>1826.678973869304</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U35" t="n">
-        <v>1571.793637583299</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V35" t="n">
-        <v>1234.81436347924</v>
+        <v>1764.233530955903</v>
       </c>
       <c r="W35" t="n">
-        <v>872.2794333368408</v>
+        <v>1627.03715677681</v>
       </c>
       <c r="X35" t="n">
-        <v>872.2794333368408</v>
+        <v>1627.03715677681</v>
       </c>
       <c r="Y35" t="n">
-        <v>872.2794333368408</v>
+        <v>1627.03715677681</v>
       </c>
     </row>
     <row r="36">
@@ -7017,10 +7019,10 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2784026343054</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L36" t="n">
-        <v>252.8463055811703</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M36" t="n">
         <v>737.8796590913968</v>
@@ -7038,19 +7040,19 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R36" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S36" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T36" t="n">
-        <v>2101.212805059961</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U36" t="n">
-        <v>1940.906265175487</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="V36" t="n">
-        <v>1712.510642623821</v>
+        <v>1471.548322781966</v>
       </c>
       <c r="W36" t="n">
         <v>1471.194773857131</v>
@@ -7114,22 +7116,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q37" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R37" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S37" t="n">
-        <v>321.8363974045083</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T37" t="n">
-        <v>321.8363974045083</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U37" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V37" t="n">
-        <v>42.02425610119923</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W37" t="n">
         <v>42.02425610119923</v>
@@ -7148,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1429.302003668149</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="C38" t="n">
-        <v>1047.368245000957</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="D38" t="n">
-        <v>674.5442802281802</v>
+        <v>1772.703626424629</v>
       </c>
       <c r="E38" t="n">
-        <v>279.7585603342871</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="F38" t="n">
-        <v>42.02425610119923</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G38" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H38" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924033</v>
       </c>
       <c r="I38" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="J38" t="n">
-        <v>114.0228003740049</v>
+        <v>114.022800374005</v>
       </c>
       <c r="K38" t="n">
         <v>354.1631724187877</v>
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>521.6641732647531</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C39" t="n">
-        <v>359.9605005057078</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D39" t="n">
-        <v>221.1218634959199</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E39" t="n">
-        <v>110.4065414111382</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F39" t="n">
-        <v>110.4065414111382</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G39" t="n">
-        <v>110.4065414111382</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H39" t="n">
         <v>110.4065414111382</v>
@@ -7263,13 +7265,13 @@
         <v>1182.624153874836</v>
       </c>
       <c r="N39" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O39" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P39" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q39" t="n">
         <v>2101.212805059961</v>
@@ -7278,25 +7280,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S39" t="n">
-        <v>1948.413318072701</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T39" t="n">
-        <v>1759.728214238687</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U39" t="n">
-        <v>1541.233421836997</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V39" t="n">
-        <v>1312.837799285331</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W39" t="n">
-        <v>1071.521930518641</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X39" t="n">
-        <v>873.6049423964351</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y39" t="n">
-        <v>681.083616046014</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2101.212805059961</v>
+        <v>55.64079773160731</v>
       </c>
       <c r="C40" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D40" t="n">
-        <v>2042.562977659083</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E40" t="n">
-        <v>1890.553963420402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F40" t="n">
-        <v>1738.073308446179</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K40" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L40" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M40" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N40" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O40" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U40" t="n">
-        <v>2101.212805059961</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V40" t="n">
-        <v>2101.212805059961</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W40" t="n">
-        <v>2101.212805059961</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="X40" t="n">
-        <v>2101.212805059961</v>
+        <v>55.64079773160731</v>
       </c>
       <c r="Y40" t="n">
-        <v>2101.212805059961</v>
+        <v>55.64079773160731</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2021.822876670703</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="C41" t="n">
-        <v>1639.88911800351</v>
+        <v>1719.279046392769</v>
       </c>
       <c r="D41" t="n">
-        <v>1267.065153230734</v>
+        <v>1346.455081619992</v>
       </c>
       <c r="E41" t="n">
-        <v>872.2794333368408</v>
+        <v>951.6693617260989</v>
       </c>
       <c r="F41" t="n">
-        <v>458.1282426470112</v>
+        <v>537.5181710362692</v>
       </c>
       <c r="G41" t="n">
-        <v>42.02425610119923</v>
+        <v>121.4141844904572</v>
       </c>
       <c r="H41" t="n">
-        <v>42.02425610119923</v>
+        <v>121.4141844904572</v>
       </c>
       <c r="I41" t="n">
         <v>42.02425610119923</v>
@@ -7451,10 +7453,10 @@
         <v>2101.212805059961</v>
       </c>
       <c r="X41" t="n">
-        <v>2021.822876670703</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Y41" t="n">
-        <v>2021.822876670703</v>
+        <v>2101.212805059961</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7466,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>753.0168738400023</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C42" t="n">
-        <v>591.313201080957</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D42" t="n">
-        <v>452.4745640711691</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E42" t="n">
-        <v>305.4465541280403</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F42" t="n">
-        <v>170.7527560779147</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G42" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H42" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I42" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J42" t="n">
-        <v>44.796090196649</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K42" t="n">
-        <v>44.796090196649</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L42" t="n">
         <v>410.6179353667646</v>
@@ -7515,25 +7517,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S42" t="n">
-        <v>1981.849030525745</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T42" t="n">
-        <v>1793.16392669173</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U42" t="n">
-        <v>1574.66913429004</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V42" t="n">
-        <v>1346.273511738374</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W42" t="n">
-        <v>1104.957642971684</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X42" t="n">
-        <v>1104.957642971684</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y42" t="n">
-        <v>912.4363166212631</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="43">
@@ -7588,25 +7590,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q43" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R43" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S43" t="n">
-        <v>321.8363974045083</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T43" t="n">
-        <v>321.8363974045083</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U43" t="n">
-        <v>321.8363974045083</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V43" t="n">
-        <v>61.10109296293086</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W43" t="n">
-        <v>61.10109296293086</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X43" t="n">
         <v>42.02425610119923</v>
@@ -7622,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1719.182664581455</v>
+        <v>1183.462700162095</v>
       </c>
       <c r="C44" t="n">
-        <v>1719.182664581455</v>
+        <v>801.528941494902</v>
       </c>
       <c r="D44" t="n">
-        <v>1346.358699808678</v>
+        <v>428.7049767221256</v>
       </c>
       <c r="E44" t="n">
-        <v>951.572979914785</v>
+        <v>428.7049767221256</v>
       </c>
       <c r="F44" t="n">
-        <v>537.4217892249553</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G44" t="n">
-        <v>121.3178026791433</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H44" t="n">
-        <v>121.3178026791433</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I44" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J44" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K44" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L44" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M44" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N44" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O44" t="n">
         <v>1778.623654917371</v>
@@ -7673,25 +7675,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S44" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T44" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="U44" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="V44" t="n">
-        <v>2101.212805059961</v>
+        <v>1577.004555586257</v>
       </c>
       <c r="W44" t="n">
-        <v>2101.212805059961</v>
+        <v>1577.004555586257</v>
       </c>
       <c r="X44" t="n">
-        <v>1719.182664581455</v>
+        <v>1577.004555586257</v>
       </c>
       <c r="Y44" t="n">
-        <v>1719.182664581455</v>
+        <v>1183.462700162095</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>921.3370166032433</v>
+        <v>624.2883738632869</v>
       </c>
       <c r="C45" t="n">
-        <v>759.6333438441981</v>
+        <v>462.5847011042416</v>
       </c>
       <c r="D45" t="n">
-        <v>620.7947068344101</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="E45" t="n">
-        <v>473.7666968912813</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F45" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G45" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H45" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I45" t="n">
         <v>42.02425610119923</v>
@@ -7728,22 +7730,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K45" t="n">
-        <v>271.5148086613879</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L45" t="n">
-        <v>271.5148086613879</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M45" t="n">
-        <v>756.5481621716143</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N45" t="n">
-        <v>1267.813808294736</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O45" t="n">
-        <v>1660.013759078887</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P45" t="n">
-        <v>1962.109678354585</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q45" t="n">
         <v>2101.212805059961</v>
@@ -7752,25 +7754,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S45" t="n">
-        <v>1948.413318072701</v>
+        <v>2051.037518671235</v>
       </c>
       <c r="T45" t="n">
-        <v>1759.728214238687</v>
+        <v>1862.35241483722</v>
       </c>
       <c r="U45" t="n">
-        <v>1541.233421836997</v>
+        <v>1643.85762243553</v>
       </c>
       <c r="V45" t="n">
-        <v>1541.233421836997</v>
+        <v>1415.461999883864</v>
       </c>
       <c r="W45" t="n">
-        <v>1471.194773857131</v>
+        <v>1174.146131117174</v>
       </c>
       <c r="X45" t="n">
-        <v>1273.277785734925</v>
+        <v>976.229142994969</v>
       </c>
       <c r="Y45" t="n">
-        <v>1080.756459384504</v>
+        <v>783.7078166445478</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D46" t="n">
-        <v>1948.140911887724</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E46" t="n">
-        <v>1890.553963420402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F46" t="n">
-        <v>1738.073308446179</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G46" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H46" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I46" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J46" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K46" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L46" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M46" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N46" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O46" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S46" t="n">
-        <v>2101.212805059961</v>
+        <v>534.0120246474009</v>
       </c>
       <c r="T46" t="n">
-        <v>2101.212805059961</v>
+        <v>534.0120246474009</v>
       </c>
       <c r="U46" t="n">
-        <v>2101.212805059961</v>
+        <v>534.0120246474009</v>
       </c>
       <c r="V46" t="n">
-        <v>2101.212805059961</v>
+        <v>273.2767202058235</v>
       </c>
       <c r="W46" t="n">
-        <v>2101.212805059961</v>
+        <v>273.2767202058235</v>
       </c>
       <c r="X46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K2" t="n">
-        <v>421.3890363425138</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
@@ -8058,7 +8060,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
@@ -8067,13 +8069,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>623.1450866466196</v>
+        <v>479.0556164367791</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>196.5733747639883</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8213,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K5" t="n">
-        <v>421.3890363425138</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
         <v>542.9595789155856</v>
@@ -8298,10 +8300,10 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>264.6642244265669</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>605.4165828749999</v>
+        <v>547.3536410187814</v>
       </c>
       <c r="N6" t="n">
         <v>623.1450866466196</v>
@@ -8313,7 +8315,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8459,7 +8461,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M8" t="n">
-        <v>584.3675935406818</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N8" t="n">
         <v>568.5510017355793</v>
@@ -8529,19 +8531,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>482.0924488944969</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>173.9082232290041</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
@@ -8708,7 +8710,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8945,7 +8947,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9009,22 +9011,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>394.1362801165803</v>
       </c>
       <c r="O15" t="n">
-        <v>493.1639412413467</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9176,7 +9178,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O17" t="n">
-        <v>495.0402356415685</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
         <v>418.3383206229274</v>
@@ -9243,16 +9245,16 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K18" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>325.5269987024317</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>394.1362801165803</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9263,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9419,7 +9421,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9483,7 +9485,7 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
@@ -9498,7 +9500,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>116.5350238645387</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9717,16 +9719,16 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>325.5269987024317</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>394.1362801165803</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9735,7 +9737,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,7 +9953,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K27" t="n">
         <v>111.9961691666667</v>
@@ -9963,7 +9965,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>405.7168621786896</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9972,7 +9974,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>116.5350238645387</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10191,10 +10193,10 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K30" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
-        <v>325.5269987024317</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
@@ -10206,10 +10208,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>414.0015992319183</v>
+        <v>184.992792701879</v>
       </c>
       <c r="Q30" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10349,7 +10351,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K32" t="n">
-        <v>421.3890363425138</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L32" t="n">
         <v>542.9595789155856</v>
@@ -10428,13 +10430,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>547.3536410187814</v>
       </c>
       <c r="N33" t="n">
         <v>623.1450866466196</v>
@@ -10443,7 +10445,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
         <v>113.7351914448925</v>
@@ -10665,13 +10667,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>264.6642244265669</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>605.4165828749999</v>
+        <v>156.1797194573845</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
@@ -10911,7 +10913,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2735058407155</v>
+        <v>173.9082232290041</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10920,7 +10922,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11078,7 +11080,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11136,13 +11138,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>105.8554040863129</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L42" t="n">
-        <v>482.0924488944969</v>
+        <v>424.0295070382783</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11376,10 +11378,10 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L45" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -11394,7 +11396,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>254.2434002382024</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -22544,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>279.6881035209254</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>410.0096787829314</v>
@@ -22592,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
@@ -22607,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>44.78262047058666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22626,22 +22628,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>38.50770056809694</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22683,7 +22685,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>210.3663323986422</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -22717,16 +22719,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4884972741916158</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,13 +22752,13 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>63.70773940111974</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -22781,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>187.0712060024998</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>33.47847944056645</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -22863,13 +22865,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>151.4795629239631</v>
+        <v>106.4411796807437</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -22929,7 +22931,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
         <v>167.9198098429365</v>
@@ -22948,19 +22950,19 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0.4884972741916158</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -23008,7 +23010,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>84.74155971997195</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="8">
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.4852866259057</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -23030,13 +23032,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>183.1723687120777</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23103,22 +23105,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>82.92511742169421</v>
       </c>
       <c r="E9" t="n">
-        <v>101.4273469898256</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23151,7 +23153,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
         <v>410.0096787829314</v>
@@ -23273,7 +23275,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I11" t="n">
         <v>171.0890268032919</v>
@@ -23306,25 +23308,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
-        <v>185.3566856159496</v>
+        <v>81.54720002385497</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>21.95802777960506</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>27.43752473892766</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23394,7 +23396,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>136.9506567362058</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4884972741916158</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>73.23022383480694</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23458,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>230.8471636524779</v>
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
         <v>411.9429466803539</v>
@@ -23513,7 +23515,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I14" t="n">
-        <v>60.46701085633777</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>389.6064368699203</v>
+        <v>171.2791036629602</v>
       </c>
     </row>
     <row r="15">
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>137.3815393613487</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23580,16 +23582,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>27.43752473892766</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
         <v>67.69846245683961</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23640,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23665,16 +23667,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4884972741916158</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>230.8471636524779</v>
+        <v>101.8597073339676</v>
       </c>
       <c r="U16" t="n">
         <v>284.3183371157911</v>
@@ -23735,22 +23737,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>43.87163827606969</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>389.6064368699203</v>
+        <v>171.2791036629602</v>
       </c>
     </row>
     <row r="18">
@@ -23817,13 +23819,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>27.43752473892766</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
         <v>98.93847887876893</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>12.72932909182339</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23944,13 +23946,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U19" t="n">
-        <v>40.87452179009284</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
@@ -23972,10 +23974,10 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>410.0096787829314</v>
@@ -23984,10 +23986,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H20" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24026,16 +24028,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>305.0689231603019</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>171.2791036629602</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="21">
@@ -24057,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>27.43752473892757</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>116.7927962080469</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -24133,13 +24135,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>167.2305511458285</v>
+        <v>150.5800509907646</v>
       </c>
       <c r="H22" t="n">
         <v>157.7789187685189</v>
@@ -24172,13 +24174,13 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>169.1231633243157</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U22" t="n">
         <v>284.3183371157911</v>
@@ -24187,7 +24189,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
@@ -24209,10 +24211,10 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>43.87163827606963</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24221,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>239.5748804373914</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24266,13 +24268,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24285,7 +24287,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>154.8787397158759</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24294,16 +24296,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24345,7 +24347,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>208.8778621094304</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -24376,7 +24378,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>42.02652056953711</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H25" t="n">
         <v>157.7789187685189</v>
@@ -24412,10 +24414,10 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>284.3183371157911</v>
@@ -24427,10 +24429,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>144.6211152929321</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>378.1144210805207</v>
@@ -24449,16 +24451,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>284.5751544478766</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>26.3203255921793</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I26" t="n">
         <v>171.0890268032919</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T26" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U26" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -24540,7 +24542,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,19 +24572,19 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>176.7061603308782</v>
       </c>
       <c r="U27" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>179.3662704274321</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H28" t="n">
-        <v>157.7789187685189</v>
+        <v>66.89977733135183</v>
       </c>
       <c r="I28" t="n">
         <v>142.7610139533483</v>
@@ -24655,7 +24657,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U28" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
@@ -24667,7 +24669,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
-        <v>12.53713850962399</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="29">
@@ -24680,25 +24682,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>89.95536133724329</v>
+        <v>141.2177997232729</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H29" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,25 +24730,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U29" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24768,10 +24770,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
         <v>98.93847887876893</v>
@@ -24804,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>27.43752473892749</v>
       </c>
       <c r="T30" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>42.24092077382173</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>181.719814997536</v>
+        <v>132.9239208208702</v>
       </c>
       <c r="C31" t="n">
         <v>167.9198098429365</v>
@@ -24886,10 +24888,10 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T31" t="n">
-        <v>173.8091272265157</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U31" t="n">
         <v>284.3183371157911</v>
@@ -24904,7 +24906,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24917,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>78.46207532510101</v>
       </c>
       <c r="D32" t="n">
         <v>369.0957251250487</v>
@@ -24926,16 +24928,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
-        <v>52.15557565942635</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,7 +24970,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T32" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>252.3364829231459</v>
@@ -24977,13 +24979,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25044,16 +25046,16 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>57.60636999204326</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>179.3662704274322</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25075,19 +25077,19 @@
         <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
-        <v>150.4889240962943</v>
+        <v>109.856480716067</v>
       </c>
       <c r="F34" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>157.7789187685189</v>
@@ -25123,13 +25125,13 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T34" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
@@ -25141,7 +25143,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>188.967156512313</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="35">
@@ -25154,10 +25156,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>390.8378626949542</v>
@@ -25202,19 +25204,19 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
-        <v>135.6835495434984</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>223.0851704036733</v>
       </c>
       <c r="X35" t="n">
         <v>378.2098390737216</v>
@@ -25278,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>57.60636999204326</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>238.5526966434358</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25354,25 +25356,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T37" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U37" t="n">
-        <v>7.304317225515206</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V37" t="n">
-        <v>258.1279513971616</v>
+        <v>14.68413607146334</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>318.9602275311245</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>174.6527175921744</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25476,16 +25478,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>35.94956097976362</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25518,13 +25520,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>57.60636999204326</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25549,19 +25551,19 @@
         <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>154.4394336288325</v>
       </c>
       <c r="D40" t="n">
-        <v>93.47784511364551</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H40" t="n">
         <v>157.7789187685189</v>
@@ -25603,7 +25605,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U40" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
@@ -25612,7 +25614,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>219.8148072196457</v>
@@ -25646,7 +25648,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I41" t="n">
-        <v>171.0890268032919</v>
+        <v>92.49299769792654</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>299.6138099683561</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
         <v>389.6064368699203</v>
@@ -25722,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,13 +25757,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
-        <v>33.10135532851287</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>57.60636999204326</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25770,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25828,28 +25830,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T43" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U43" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X43" t="n">
-        <v>210.0538709704637</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
         <v>219.8148072196457</v>
@@ -25865,25 +25867,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>27.19576536821427</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H44" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I44" t="n">
-        <v>92.58841569112731</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>222.1153568062989</v>
@@ -25922,16 +25924,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25956,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,7 +25994,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>101.597958592548</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26001,10 +26003,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>169.5644485789557</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26026,16 +26028,16 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>93.47784511364543</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H46" t="n">
         <v>157.7789187685189</v>
@@ -26071,7 +26073,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
-        <v>211.5726649703493</v>
+        <v>171.9019030376159</v>
       </c>
       <c r="T46" t="n">
         <v>230.8471636524779</v>
@@ -26080,13 +26082,13 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>219.8148072196457</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>653322.3713799926</v>
+        <v>653322.3713799925</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>653322.3713799925</v>
+        <v>653322.3713799926</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>653322.3713799926</v>
+        <v>653322.3713799925</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>653322.3713799926</v>
+        <v>653322.3713799925</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>653322.3713799927</v>
+        <v>653322.3713799926</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>653322.3713799925</v>
+        <v>653322.3713799926</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>653322.3713799926</v>
+        <v>653322.3713799927</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>653322.3713799926</v>
+        <v>653322.3713799925</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>653322.3713799925</v>
+        <v>653322.3713799923</v>
       </c>
     </row>
     <row r="13">
@@ -26326,7 +26328,7 @@
         <v>132852.144310185</v>
       </c>
       <c r="G2" t="n">
-        <v>132852.144310185</v>
+        <v>132852.1443101849</v>
       </c>
       <c r="H2" t="n">
         <v>132852.144310185</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11603.65937297562</v>
+        <v>11603.65937297561</v>
       </c>
       <c r="C4" t="n">
-        <v>11603.65937297562</v>
+        <v>11603.65937297561</v>
       </c>
       <c r="D4" t="n">
         <v>11603.65937297562</v>
       </c>
       <c r="E4" t="n">
-        <v>11603.65937297562</v>
+        <v>11603.65937297561</v>
       </c>
       <c r="F4" t="n">
         <v>11603.65937297562</v>
@@ -26522,46 +26524,46 @@
         <v>-120358.7344172294</v>
       </c>
       <c r="C6" t="n">
-        <v>55682.45030029793</v>
+        <v>55682.45030029802</v>
       </c>
       <c r="D6" t="n">
         <v>55682.45030029793</v>
       </c>
       <c r="E6" t="n">
+        <v>89310.05030029797</v>
+      </c>
+      <c r="F6" t="n">
         <v>89310.05030029794</v>
       </c>
-      <c r="F6" t="n">
-        <v>89310.05030029797</v>
-      </c>
       <c r="G6" t="n">
-        <v>89310.05030029797</v>
+        <v>89310.05030029791</v>
       </c>
       <c r="H6" t="n">
         <v>89310.05030029797</v>
       </c>
       <c r="I6" t="n">
-        <v>89310.05030029797</v>
+        <v>89310.05030029794</v>
       </c>
       <c r="J6" t="n">
-        <v>-48132.38049147916</v>
+        <v>-48132.38049147915</v>
       </c>
       <c r="K6" t="n">
-        <v>89310.05030029797</v>
+        <v>89310.05030029794</v>
       </c>
       <c r="L6" t="n">
-        <v>89310.05030029797</v>
+        <v>89310.05030029803</v>
       </c>
       <c r="M6" t="n">
         <v>89310.05030029794</v>
       </c>
       <c r="N6" t="n">
+        <v>89310.050300298</v>
+      </c>
+      <c r="O6" t="n">
         <v>89310.05030029797</v>
       </c>
-      <c r="O6" t="n">
-        <v>89310.050300298</v>
-      </c>
       <c r="P6" t="n">
-        <v>89310.050300298</v>
+        <v>89310.05030029797</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>72.72580229576329</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K2" t="n">
-        <v>242.5660323684671</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
@@ -34778,7 +34780,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
         <v>369.5170153233491</v>
@@ -34787,13 +34789,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>516.4299455789112</v>
+        <v>372.3404753690708</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>87.71916873984496</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -34933,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>72.72580229576329</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K5" t="n">
-        <v>242.5660323684671</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
         <v>351.3993667524709</v>
@@ -35018,10 +35020,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>152.0887908554191</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>489.93268031336</v>
+        <v>431.8697384571415</v>
       </c>
       <c r="N6" t="n">
         <v>516.4299455789112</v>
@@ -35033,7 +35035,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,7 +35181,7 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M8" t="n">
-        <v>397.2112790435227</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N8" t="n">
         <v>382.1528875633492</v>
@@ -35249,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>369.5170153233491</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>67.19308216129573</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>72.72580229576329</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K11" t="n">
         <v>242.5660323684674</v>
@@ -35428,7 +35430,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35665,7 +35667,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M15" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N15" t="n">
-        <v>516.4299455789112</v>
+        <v>287.421139048872</v>
       </c>
       <c r="O15" t="n">
-        <v>377.3044926302356</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P15" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>72.72580229576329</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K17" t="n">
         <v>242.5660323684674</v>
@@ -35896,7 +35898,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O17" t="n">
-        <v>308.0854388614481</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
         <v>230.4615115717709</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L18" t="n">
-        <v>212.9515651312839</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M18" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N18" t="n">
-        <v>516.4299455789112</v>
+        <v>287.421139048872</v>
       </c>
       <c r="O18" t="n">
         <v>396.1615664486372</v>
@@ -35981,7 +35983,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>369.5170153233491</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M21" t="n">
         <v>489.93268031336</v>
@@ -36218,7 +36220,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.799832419646239</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
-        <v>212.9515651312839</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M24" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N24" t="n">
-        <v>516.4299455789112</v>
+        <v>287.421139048872</v>
       </c>
       <c r="O24" t="n">
         <v>396.1615664486372</v>
@@ -36455,7 +36457,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36683,7 +36685,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N27" t="n">
-        <v>299.0017211109813</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O27" t="n">
         <v>396.1615664486372</v>
@@ -36692,7 +36694,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.3652826117113</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L30" t="n">
-        <v>212.9515651312839</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M30" t="n">
         <v>489.93268031336</v>
@@ -36926,10 +36928,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P30" t="n">
-        <v>305.147393207775</v>
+        <v>76.13858667773572</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K32" t="n">
-        <v>242.5660323684671</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L32" t="n">
         <v>351.3993667524709</v>
@@ -37148,13 +37150,13 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K33" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M33" t="n">
-        <v>489.93268031336</v>
+        <v>431.8697384571415</v>
       </c>
       <c r="N33" t="n">
         <v>516.4299455789112</v>
@@ -37163,7 +37165,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P33" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,13 +37387,13 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L36" t="n">
-        <v>152.0887908554191</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M36" t="n">
-        <v>489.93268031336</v>
+        <v>40.69581689574456</v>
       </c>
       <c r="N36" t="n">
         <v>516.4299455789112</v>
@@ -37631,7 +37633,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N39" t="n">
-        <v>226.5583647730072</v>
+        <v>67.19308216129573</v>
       </c>
       <c r="O39" t="n">
         <v>396.1615664486372</v>
@@ -37640,7 +37642,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.799832419646239</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>369.5170153233491</v>
+        <v>311.4540734671306</v>
       </c>
       <c r="M42" t="n">
         <v>489.93268031336</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
         <v>242.5660323684674</v>
@@ -38096,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>231.8086389496855</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M45" t="n">
         <v>489.93268031336</v>
@@ -38114,7 +38116,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q45" t="n">
-        <v>140.5082087933099</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_1_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>418796.2387407288</v>
+        <v>350801.0707904547</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>714286.6128340089</v>
+        <v>714286.6128340084</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7554446.892829804</v>
+        <v>7554446.892829806</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>98.42631755959526</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>39.51410102743191</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,16 +740,16 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>121.5789354633579</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>77.22912005048893</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
         <v>127.4412149769483</v>
@@ -803,10 +803,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>147.8649255692296</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>218.8580034825794</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>325.5235931386759</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>53.64545635071116</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>137.45025063969</v>
@@ -992,10 +992,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>29.68628459940282</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7420538716369</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>147.8649255692296</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
@@ -1189,19 +1189,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>121.4710875045488</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>175.7372121288973</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1217,22 +1217,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>54.52513321799584</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>35.85229204714164</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.7420538716369</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.39375210591641</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>225.5763974241153</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.8094855920946</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U11" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,19 +1454,19 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>70.26067323799711</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>151.2714921173871</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.53079011854132</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>127.9716792980587</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>96.17232098652785</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V14" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>218.3273332069601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,22 +1691,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>118.1202051047698</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>119.6172045266756</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>151.2714921173871</v>
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>128.9874563185103</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>101.5680910050573</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U17" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>333.6094813630181</v>
@@ -1912,7 +1912,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>218.3273332069601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,19 +1928,19 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>11.07424702199345</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="W19" t="n">
-        <v>242.420315677682</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>165.9976499655407</v>
       </c>
       <c r="E20" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H20" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>185.3566856159496</v>
@@ -2140,7 +2140,7 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V20" t="n">
-        <v>28.54055820271616</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2165,10 +2165,10 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>133.3468600696244</v>
@@ -2177,10 +2177,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93847887876893</v>
+        <v>53.96880691389086</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U21" t="n">
-        <v>99.51704826962602</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>16.65050015506385</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>388.1130067718397</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
         <v>410.0096787829314</v>
@@ -2335,7 +2335,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H23" t="n">
-        <v>89.91818122127236</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,10 +2399,10 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
-        <v>5.207896315578957</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
-        <v>137.45025063969</v>
+        <v>110.0127259007624</v>
       </c>
       <c r="E24" t="n">
         <v>145.5577298436975</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2481,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>91.93139158138763</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>84.31882417064588</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>125.4345243350548</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>135.0201425330891</v>
       </c>
       <c r="U26" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2639,13 +2639,13 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D27" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>133.3468600696244</v>
+        <v>29.19076188874264</v>
       </c>
       <c r="G27" t="n">
         <v>127.4412149769483</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T27" t="n">
-        <v>10.09209246479641</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
         <v>216.3098444776729</v>
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>37.76353774383359</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>90.87914143716708</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U28" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2794,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>236.8966213572477</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0096787829314</v>
+        <v>232.680957269503</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U29" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
         <v>358.909580840975</v>
@@ -2882,7 +2882,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>123.8339673784596</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
         <v>186.7982527956746</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.79589417666581</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>258.1279513971616</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>299.6523457554197</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>120.003608912645</v>
       </c>
       <c r="T32" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3119,16 +3119,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G33" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3164,10 +3164,10 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V33" t="n">
-        <v>46.74539589871718</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W33" t="n">
         <v>238.9027100790231</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>40.63244338022731</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>369.0957251250487</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>63.50998615282429</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>135.8244104373017</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3356,16 +3356,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G36" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3401,13 +3401,13 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W36" t="n">
-        <v>0.3500134355872933</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X36" t="n">
         <v>195.9378182409833</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>243.4438153256983</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>50.13549759392411</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.6576159858904</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3593,16 +3593,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G39" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U39" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>13.480376214104</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>39.67076193273348</v>
       </c>
       <c r="X40" t="n">
         <v>228.939939463578</v>
@@ -3742,16 +3742,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>411.9429466803539</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>78.5960291053654</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>139.9938678896244</v>
       </c>
     </row>
     <row r="42">
@@ -3824,22 +3824,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D42" t="n">
-        <v>137.45025063969</v>
+        <v>110.0127259007624</v>
       </c>
       <c r="E42" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U42" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -3903,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>12.66896515812826</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>242.420315677682</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,22 +3982,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>382.8139134147171</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>185.3566856159496</v>
+        <v>168.7370953517232</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4067,7 +4067,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>49.67353352483909</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
         <v>186.7982527956746</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>39.67076193273343</v>
+        <v>91.46446725320133</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.4447788886692</v>
+        <v>1231.480932796104</v>
       </c>
       <c r="C2" t="n">
-        <v>42.02425610119923</v>
+        <v>849.5471741289111</v>
       </c>
       <c r="D2" t="n">
-        <v>42.02425610119923</v>
+        <v>476.7232093561347</v>
       </c>
       <c r="E2" t="n">
-        <v>42.02425610119923</v>
+        <v>81.93748946224156</v>
       </c>
       <c r="F2" t="n">
         <v>42.02425610119923</v>
@@ -4330,7 +4330,7 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J2" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K2" t="n">
         <v>354.1631724187873</v>
@@ -4357,25 +4357,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S2" t="n">
-        <v>2010.574518555815</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T2" t="n">
-        <v>2010.574518555815</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U2" t="n">
-        <v>2010.574518555815</v>
+        <v>1568.460206900163</v>
       </c>
       <c r="V2" t="n">
-        <v>1673.595244451756</v>
+        <v>1231.480932796104</v>
       </c>
       <c r="W2" t="n">
-        <v>1311.060314309357</v>
+        <v>1231.480932796104</v>
       </c>
       <c r="X2" t="n">
-        <v>929.0301738308503</v>
+        <v>1231.480932796104</v>
       </c>
       <c r="Y2" t="n">
-        <v>535.4883184066883</v>
+        <v>1231.480932796104</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>461.879904359699</v>
+        <v>852.3182188323256</v>
       </c>
       <c r="C3" t="n">
-        <v>339.0728988411556</v>
+        <v>690.6145460732803</v>
       </c>
       <c r="D3" t="n">
-        <v>339.0728988411556</v>
+        <v>551.7759090634923</v>
       </c>
       <c r="E3" t="n">
-        <v>339.0728988411556</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F3" t="n">
         <v>339.0728988411556</v>
@@ -4418,13 +4418,13 @@
         <v>697.5908003646097</v>
       </c>
       <c r="M3" t="n">
-        <v>1182.624153874836</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N3" t="n">
-        <v>1551.241224490216</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O3" t="n">
-        <v>1943.441175274367</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P3" t="n">
         <v>1943.441175274367</v>
@@ -4451,10 +4451,10 @@
         <v>1011.737661613587</v>
       </c>
       <c r="X3" t="n">
-        <v>813.8206734913811</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="Y3" t="n">
-        <v>621.2993471409599</v>
+        <v>1011.737661613587</v>
       </c>
     </row>
     <row r="4">
@@ -4512,19 +4512,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R4" t="n">
-        <v>424.5617199615099</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S4" t="n">
-        <v>275.2032092855204</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T4" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U4" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V4" t="n">
-        <v>42.02425610119923</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W4" t="n">
         <v>42.02425610119923</v>
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1377.917906530736</v>
+        <v>423.9580147683919</v>
       </c>
       <c r="C5" t="n">
-        <v>1377.917906530736</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D5" t="n">
-        <v>1377.917906530736</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E5" t="n">
-        <v>1377.917906530736</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F5" t="n">
-        <v>963.766715840906</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G5" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H5" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I5" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J5" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K5" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L5" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M5" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N5" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O5" t="n">
         <v>1778.623654917371</v>
@@ -4591,28 +4591,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R5" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S5" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T5" t="n">
-        <v>1598.98659691718</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U5" t="n">
-        <v>1377.917906530736</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="V5" t="n">
-        <v>1377.917906530736</v>
+        <v>1509.348194669897</v>
       </c>
       <c r="W5" t="n">
-        <v>1377.917906530736</v>
+        <v>1146.813264527498</v>
       </c>
       <c r="X5" t="n">
-        <v>1377.917906530736</v>
+        <v>818.001554286411</v>
       </c>
       <c r="Y5" t="n">
-        <v>1377.917906530736</v>
+        <v>818.001554286411</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>813.8206734913811</v>
+        <v>621.2993471409599</v>
       </c>
       <c r="C6" t="n">
-        <v>759.6333438441981</v>
+        <v>621.2993471409599</v>
       </c>
       <c r="D6" t="n">
-        <v>620.7947068344101</v>
+        <v>482.4607101311719</v>
       </c>
       <c r="E6" t="n">
-        <v>473.7666968912813</v>
+        <v>335.4327001880432</v>
       </c>
       <c r="F6" t="n">
-        <v>339.0728988411556</v>
+        <v>200.7389021379175</v>
       </c>
       <c r="G6" t="n">
-        <v>210.3443988644402</v>
+        <v>72.01040216120208</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4065414111382</v>
+        <v>72.01040216120208</v>
       </c>
       <c r="I6" t="n">
         <v>42.02425610119923</v>
@@ -4649,13 +4649,13 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K6" t="n">
-        <v>102.2784026343054</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L6" t="n">
-        <v>468.100247804421</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M6" t="n">
-        <v>895.6512888769911</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N6" t="n">
         <v>1406.916935000113</v>
@@ -4691,7 +4691,7 @@
         <v>813.8206734913811</v>
       </c>
       <c r="Y6" t="n">
-        <v>813.8206734913811</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G7" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H7" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I7" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J7" t="n">
         <v>42.02425610119923</v>
@@ -4749,28 +4749,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R7" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S7" t="n">
-        <v>574.0835013471317</v>
+        <v>275.2032092855204</v>
       </c>
       <c r="T7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.02425610119923</v>
+        <v>1172.883275716895</v>
       </c>
       <c r="C8" t="n">
-        <v>42.02425610119923</v>
+        <v>790.949517049702</v>
       </c>
       <c r="D8" t="n">
-        <v>42.02425610119923</v>
+        <v>790.949517049702</v>
       </c>
       <c r="E8" t="n">
-        <v>42.02425610119923</v>
+        <v>790.949517049702</v>
       </c>
       <c r="F8" t="n">
-        <v>42.02425610119923</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G8" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H8" t="n">
         <v>42.02425610119923</v>
@@ -4828,28 +4828,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T8" t="n">
-        <v>1598.98659691718</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U8" t="n">
-        <v>1344.101260631174</v>
+        <v>1566.926815234914</v>
       </c>
       <c r="V8" t="n">
-        <v>1007.121986527115</v>
+        <v>1566.926815234914</v>
       </c>
       <c r="W8" t="n">
-        <v>829.6096510433804</v>
+        <v>1566.926815234914</v>
       </c>
       <c r="X8" t="n">
-        <v>829.6096510433804</v>
+        <v>1566.926815234914</v>
       </c>
       <c r="Y8" t="n">
-        <v>436.0677956192184</v>
+        <v>1566.926815234914</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>461.879904359699</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C9" t="n">
-        <v>300.1762316006536</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D9" t="n">
-        <v>245.1003394612639</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="E9" t="n">
-        <v>245.1003394612639</v>
+        <v>212.9324905625791</v>
       </c>
       <c r="F9" t="n">
-        <v>110.4065414111382</v>
+        <v>78.23869251245341</v>
       </c>
       <c r="G9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>42.02425610119923</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>252.8463055811703</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>737.8796590913968</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N9" t="n">
-        <v>1249.145305214519</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P9" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X9" t="n">
-        <v>813.8206734913811</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y9" t="n">
-        <v>621.2993471409599</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -4986,28 +4986,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>137.3714804506097</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.02425610119923</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="C11" t="n">
-        <v>42.02425610119923</v>
+        <v>1494.92010012378</v>
       </c>
       <c r="D11" t="n">
-        <v>42.02425610119923</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="E11" t="n">
-        <v>42.02425610119923</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F11" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G11" t="n">
         <v>42.02425610119923</v>
@@ -5041,19 +5041,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J11" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K11" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L11" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M11" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N11" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O11" t="n">
         <v>1778.623654917371</v>
@@ -5068,25 +5068,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S11" t="n">
-        <v>1996.35473880532</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T11" t="n">
-        <v>1771.995792536331</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U11" t="n">
-        <v>1517.110456250326</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="V11" t="n">
-        <v>1180.131182146267</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="W11" t="n">
-        <v>817.5962520038679</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="X11" t="n">
-        <v>435.5661115253612</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="Y11" t="n">
-        <v>42.02425610119923</v>
+        <v>1876.853858790972</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>461.879904359699</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C12" t="n">
-        <v>300.1762316006536</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D12" t="n">
-        <v>161.3375945908657</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="E12" t="n">
-        <v>42.02425610119923</v>
+        <v>212.9324905625791</v>
       </c>
       <c r="F12" t="n">
-        <v>42.02425610119923</v>
+        <v>212.9324905625791</v>
       </c>
       <c r="G12" t="n">
-        <v>42.02425610119923</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H12" t="n">
         <v>42.02425610119923</v>
@@ -5120,22 +5120,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K12" t="n">
-        <v>331.768955194494</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L12" t="n">
-        <v>697.5908003646097</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M12" t="n">
-        <v>1182.624153874836</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N12" t="n">
-        <v>1693.889799997958</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O12" t="n">
-        <v>2086.089750782109</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P12" t="n">
         <v>2101.212805059961</v>
@@ -5144,28 +5144,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R12" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S12" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T12" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U12" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V12" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W12" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X12" t="n">
-        <v>813.8206734913811</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y12" t="n">
-        <v>621.2993471409599</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>172.3146160188864</v>
+        <v>211.6402256395189</v>
       </c>
       <c r="C13" t="n">
-        <v>172.3146160188864</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D13" t="n">
-        <v>172.3146160188864</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E13" t="n">
-        <v>172.3146160188864</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F13" t="n">
-        <v>172.3146160188864</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G13" t="n">
-        <v>172.3146160188864</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H13" t="n">
-        <v>172.3146160188864</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I13" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J13" t="n">
         <v>42.02425610119923</v>
@@ -5220,31 +5220,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q13" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R13" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S13" t="n">
-        <v>172.3146160188864</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T13" t="n">
-        <v>172.3146160188864</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="U13" t="n">
-        <v>172.3146160188864</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="V13" t="n">
-        <v>172.3146160188864</v>
+        <v>211.6402256395189</v>
       </c>
       <c r="W13" t="n">
-        <v>172.3146160188864</v>
+        <v>211.6402256395189</v>
       </c>
       <c r="X13" t="n">
-        <v>172.3146160188864</v>
+        <v>211.6402256395189</v>
       </c>
       <c r="Y13" t="n">
-        <v>172.3146160188864</v>
+        <v>211.6402256395189</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42.02425610119923</v>
+        <v>950.0577211131547</v>
       </c>
       <c r="C14" t="n">
-        <v>42.02425610119923</v>
+        <v>950.0577211131547</v>
       </c>
       <c r="D14" t="n">
-        <v>42.02425610119923</v>
+        <v>852.9139625409043</v>
       </c>
       <c r="E14" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="F14" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G14" t="n">
         <v>42.02425610119923</v>
@@ -5314,16 +5314,16 @@
         <v>1344.101260631174</v>
       </c>
       <c r="V14" t="n">
-        <v>1007.121986527115</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="W14" t="n">
-        <v>644.5870563847161</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="X14" t="n">
-        <v>262.5569159062094</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="Y14" t="n">
-        <v>42.02425610119923</v>
+        <v>1344.101260631174</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>461.879904359699</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C15" t="n">
-        <v>300.1762316006536</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D15" t="n">
-        <v>161.3375945908657</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="E15" t="n">
-        <v>42.02425610119923</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="F15" t="n">
-        <v>42.02425610119923</v>
+        <v>239.1350413878537</v>
       </c>
       <c r="G15" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H15" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I15" t="n">
         <v>42.02425610119923</v>
@@ -5363,46 +5363,46 @@
         <v>271.5148086613879</v>
       </c>
       <c r="L15" t="n">
-        <v>637.3366538315036</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="M15" t="n">
-        <v>1122.37000734173</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N15" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O15" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P15" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q15" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R15" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S15" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T15" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U15" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V15" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W15" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X15" t="n">
-        <v>813.8206734913811</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y15" t="n">
-        <v>621.2993471409599</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="16">
@@ -5457,22 +5457,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q16" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R16" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S16" t="n">
-        <v>172.3146160188864</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T16" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U16" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V16" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W16" t="n">
         <v>42.02425610119923</v>
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>42.02425610119923</v>
+        <v>517.4422521922154</v>
       </c>
       <c r="C17" t="n">
-        <v>42.02425610119923</v>
+        <v>517.4422521922154</v>
       </c>
       <c r="D17" t="n">
-        <v>42.02425610119923</v>
+        <v>144.618287419439</v>
       </c>
       <c r="E17" t="n">
         <v>42.02425610119923</v>
@@ -5515,19 +5515,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J17" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K17" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L17" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M17" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N17" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O17" t="n">
         <v>1778.623654917371</v>
@@ -5548,19 +5548,19 @@
         <v>1598.98659691718</v>
       </c>
       <c r="U17" t="n">
-        <v>1344.101260631174</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="V17" t="n">
-        <v>1007.121986527115</v>
+        <v>1262.007322813121</v>
       </c>
       <c r="W17" t="n">
-        <v>644.5870563847161</v>
+        <v>899.472392670722</v>
       </c>
       <c r="X17" t="n">
-        <v>262.5569159062094</v>
+        <v>517.4422521922154</v>
       </c>
       <c r="Y17" t="n">
-        <v>42.02425610119923</v>
+        <v>517.4422521922154</v>
       </c>
     </row>
     <row r="18">
@@ -5576,16 +5576,16 @@
         <v>300.1762316006536</v>
       </c>
       <c r="D18" t="n">
-        <v>161.3375945908657</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="E18" t="n">
-        <v>42.02425610119923</v>
+        <v>153.1482216575249</v>
       </c>
       <c r="F18" t="n">
-        <v>42.02425610119923</v>
+        <v>153.1482216575249</v>
       </c>
       <c r="G18" t="n">
-        <v>42.02425610119923</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H18" t="n">
         <v>42.02425610119923</v>
@@ -5594,25 +5594,25 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J18" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K18" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L18" t="n">
-        <v>637.3366538315036</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M18" t="n">
-        <v>1122.37000734173</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N18" t="n">
-        <v>1406.916935000113</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="O18" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P18" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q18" t="n">
         <v>2101.212805059961</v>
@@ -5709,7 +5709,7 @@
         <v>286.8932618362315</v>
       </c>
       <c r="V19" t="n">
-        <v>286.8932618362315</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W19" t="n">
         <v>42.02425610119923</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1315.272413961764</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="C20" t="n">
-        <v>1315.272413961764</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="D20" t="n">
-        <v>942.4484491889871</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="E20" t="n">
-        <v>547.662729295094</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F20" t="n">
-        <v>547.662729295094</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G20" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H20" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I20" t="n">
         <v>42.02425610119923</v>
@@ -5776,28 +5776,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R20" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S20" t="n">
-        <v>1823.345543186168</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T20" t="n">
-        <v>1598.98659691718</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U20" t="n">
-        <v>1344.101260631174</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="V20" t="n">
-        <v>1315.272413961764</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="W20" t="n">
-        <v>1315.272413961764</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="X20" t="n">
-        <v>1315.272413961764</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="Y20" t="n">
-        <v>1315.272413961764</v>
+        <v>1434.739547135321</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C21" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D21" t="n">
-        <v>620.7947068344101</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="E21" t="n">
-        <v>473.7666968912813</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="F21" t="n">
-        <v>339.0728988411556</v>
+        <v>225.2667024555822</v>
       </c>
       <c r="G21" t="n">
-        <v>210.3443988644402</v>
+        <v>96.53820247886676</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I21" t="n">
         <v>42.02425610119923</v>
@@ -5837,46 +5837,46 @@
         <v>42.02425610119923</v>
       </c>
       <c r="L21" t="n">
-        <v>252.8463055811703</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M21" t="n">
-        <v>737.8796590913968</v>
+        <v>892.8794547815413</v>
       </c>
       <c r="N21" t="n">
-        <v>1249.145305214519</v>
+        <v>1404.145100904663</v>
       </c>
       <c r="O21" t="n">
-        <v>1641.34525599867</v>
+        <v>1796.345051688814</v>
       </c>
       <c r="P21" t="n">
-        <v>1943.441175274367</v>
+        <v>2098.440970964512</v>
       </c>
       <c r="Q21" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R21" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S21" t="n">
-        <v>2041.428536154907</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T21" t="n">
-        <v>2041.428536154907</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U21" t="n">
-        <v>1940.906265175487</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V21" t="n">
-        <v>1712.510642623821</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W21" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X21" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y21" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>210.8519573651974</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C22" t="n">
-        <v>210.8519573651974</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D22" t="n">
-        <v>210.8519573651974</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E22" t="n">
-        <v>58.84294312651625</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F22" t="n">
-        <v>58.84294312651625</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G22" t="n">
         <v>42.02425610119923</v>
@@ -5934,28 +5934,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R22" t="n">
-        <v>424.5617199615099</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S22" t="n">
-        <v>210.8519573651974</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T22" t="n">
-        <v>210.8519573651974</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U22" t="n">
-        <v>210.8519573651974</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V22" t="n">
-        <v>210.8519573651974</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W22" t="n">
-        <v>210.8519573651974</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X22" t="n">
-        <v>210.8519573651974</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y22" t="n">
-        <v>210.8519573651974</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>963.1058790148937</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="C23" t="n">
-        <v>963.1058790148937</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="D23" t="n">
-        <v>963.1058790148937</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="E23" t="n">
-        <v>963.1058790148937</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F23" t="n">
-        <v>548.9546883250641</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G23" t="n">
-        <v>132.8507017792521</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H23" t="n">
         <v>42.02425610119923</v>
@@ -6016,25 +6016,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S23" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T23" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="U23" t="n">
-        <v>2101.212805059961</v>
+        <v>1659.098493404309</v>
       </c>
       <c r="V23" t="n">
-        <v>2101.212805059961</v>
+        <v>1659.098493404309</v>
       </c>
       <c r="W23" t="n">
-        <v>1738.677874917562</v>
+        <v>1659.098493404309</v>
       </c>
       <c r="X23" t="n">
-        <v>1356.647734439056</v>
+        <v>1659.098493404309</v>
       </c>
       <c r="Y23" t="n">
-        <v>963.1058790148937</v>
+        <v>1659.098493404309</v>
       </c>
     </row>
     <row r="24">
@@ -6047,16 +6047,16 @@
         <v>461.879904359699</v>
       </c>
       <c r="C24" t="n">
-        <v>456.6194030308313</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D24" t="n">
-        <v>317.7807660210434</v>
+        <v>189.052266044328</v>
       </c>
       <c r="E24" t="n">
-        <v>170.7527560779147</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F24" t="n">
-        <v>170.7527560779147</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G24" t="n">
         <v>42.02425610119923</v>
@@ -6071,22 +6071,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K24" t="n">
-        <v>271.5148086613879</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L24" t="n">
-        <v>637.3366538315036</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M24" t="n">
-        <v>1122.37000734173</v>
+        <v>892.8794547815413</v>
       </c>
       <c r="N24" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O24" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P24" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q24" t="n">
         <v>2101.212805059961</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="C25" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="D25" t="n">
-        <v>42.02425610119923</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="E25" t="n">
         <v>42.02425610119923</v>
@@ -6174,25 +6174,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S25" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T25" t="n">
-        <v>127.1947855664981</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U25" t="n">
-        <v>127.1947855664981</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V25" t="n">
-        <v>127.1947855664981</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W25" t="n">
-        <v>127.1947855664981</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="X25" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="Y25" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>979.615502273283</v>
+        <v>1185.735236943595</v>
       </c>
       <c r="C26" t="n">
-        <v>979.615502273283</v>
+        <v>1185.735236943595</v>
       </c>
       <c r="D26" t="n">
-        <v>979.615502273283</v>
+        <v>1185.735236943595</v>
       </c>
       <c r="E26" t="n">
-        <v>584.8297823793898</v>
+        <v>790.949517049702</v>
       </c>
       <c r="F26" t="n">
-        <v>458.1282426470112</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G26" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H26" t="n">
         <v>42.02425610119923</v>
@@ -6250,28 +6250,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R26" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S26" t="n">
-        <v>2010.574518555815</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T26" t="n">
-        <v>2010.574518555815</v>
+        <v>1777.59984733366</v>
       </c>
       <c r="U26" t="n">
-        <v>1755.689182269809</v>
+        <v>1522.714511047654</v>
       </c>
       <c r="V26" t="n">
-        <v>1755.689182269809</v>
+        <v>1185.735236943595</v>
       </c>
       <c r="W26" t="n">
-        <v>1755.689182269809</v>
+        <v>1185.735236943595</v>
       </c>
       <c r="X26" t="n">
-        <v>1373.659041791302</v>
+        <v>1185.735236943595</v>
       </c>
       <c r="Y26" t="n">
-        <v>1373.659041791302</v>
+        <v>1185.735236943595</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>852.9547312933042</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C27" t="n">
-        <v>691.251058534259</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D27" t="n">
-        <v>552.412421524471</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="E27" t="n">
-        <v>405.3844115813423</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="F27" t="n">
         <v>270.6906135312166</v>
@@ -6305,52 +6305,52 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J27" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K27" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L27" t="n">
-        <v>407.8461012713149</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M27" t="n">
-        <v>892.8794547815413</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N27" t="n">
-        <v>1404.145100904663</v>
+        <v>1464.39924743777</v>
       </c>
       <c r="O27" t="n">
-        <v>1796.345051688814</v>
+        <v>1856.59919822192</v>
       </c>
       <c r="P27" t="n">
-        <v>2098.440970964512</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q27" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R27" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S27" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T27" t="n">
-        <v>2091.018772267238</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U27" t="n">
-        <v>1872.523979865548</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V27" t="n">
-        <v>1644.128357313882</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W27" t="n">
-        <v>1402.812488547192</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X27" t="n">
-        <v>1204.895500424986</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y27" t="n">
-        <v>1012.374174074565</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>286.8932618362315</v>
+        <v>80.16924372123316</v>
       </c>
       <c r="C28" t="n">
-        <v>286.8932618362315</v>
+        <v>80.16924372123316</v>
       </c>
       <c r="D28" t="n">
-        <v>133.8213686639943</v>
+        <v>80.16924372123316</v>
       </c>
       <c r="E28" t="n">
-        <v>133.8213686639943</v>
+        <v>80.16924372123316</v>
       </c>
       <c r="F28" t="n">
-        <v>133.8213686639943</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G28" t="n">
-        <v>133.8213686639943</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H28" t="n">
         <v>42.02425610119923</v>
@@ -6414,22 +6414,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="T28" t="n">
-        <v>574.0835013471317</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="U28" t="n">
-        <v>286.8932618362315</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="V28" t="n">
-        <v>286.8932618362315</v>
+        <v>80.16924372123316</v>
       </c>
       <c r="W28" t="n">
-        <v>286.8932618362315</v>
+        <v>80.16924372123316</v>
       </c>
       <c r="X28" t="n">
-        <v>286.8932618362315</v>
+        <v>80.16924372123316</v>
       </c>
       <c r="Y28" t="n">
-        <v>286.8932618362315</v>
+        <v>80.16924372123316</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1090.250683207395</v>
+        <v>693.1595126162061</v>
       </c>
       <c r="C29" t="n">
-        <v>850.9611666849221</v>
+        <v>693.1595126162061</v>
       </c>
       <c r="D29" t="n">
-        <v>850.9611666849221</v>
+        <v>693.1595126162061</v>
       </c>
       <c r="E29" t="n">
-        <v>456.1754467910289</v>
+        <v>693.1595126162061</v>
       </c>
       <c r="F29" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G29" t="n">
         <v>42.02425610119923</v>
@@ -6487,28 +6487,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R29" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S29" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T29" t="n">
-        <v>2101.212805059961</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="U29" t="n">
-        <v>1846.327468773955</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="V29" t="n">
-        <v>1846.327468773955</v>
+        <v>1449.236298182767</v>
       </c>
       <c r="W29" t="n">
-        <v>1483.792538631556</v>
+        <v>1086.701368040368</v>
       </c>
       <c r="X29" t="n">
-        <v>1483.792538631556</v>
+        <v>1086.701368040368</v>
       </c>
       <c r="Y29" t="n">
-        <v>1090.250683207395</v>
+        <v>693.1595126162061</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>489.5945758131612</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C30" t="n">
-        <v>327.8909030541159</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D30" t="n">
-        <v>189.052266044328</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E30" t="n">
-        <v>42.02425610119923</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F30" t="n">
         <v>42.02425610119923</v>
@@ -6542,52 +6542,52 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J30" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K30" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L30" t="n">
-        <v>637.3366538315036</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M30" t="n">
-        <v>1122.37000734173</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N30" t="n">
-        <v>1633.635653464852</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O30" t="n">
-        <v>2025.835604249003</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P30" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q30" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R30" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S30" t="n">
-        <v>1916.343720621109</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T30" t="n">
-        <v>1727.658616787095</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U30" t="n">
-        <v>1509.163824385405</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V30" t="n">
-        <v>1280.768201833739</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W30" t="n">
-        <v>1039.452333067049</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X30" t="n">
-        <v>841.5353449448434</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y30" t="n">
-        <v>649.0140185944222</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="31">
@@ -6657,16 +6657,16 @@
         <v>574.0835013471317</v>
       </c>
       <c r="V31" t="n">
-        <v>313.3481969055543</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W31" t="n">
-        <v>313.3481969055543</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X31" t="n">
-        <v>313.3481969055543</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.31303809783137</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>344.7033932278858</v>
+        <v>1163.773481822479</v>
       </c>
       <c r="C32" t="n">
-        <v>42.02425610119923</v>
+        <v>1163.773481822479</v>
       </c>
       <c r="D32" t="n">
-        <v>42.02425610119923</v>
+        <v>790.949517049702</v>
       </c>
       <c r="E32" t="n">
-        <v>42.02425610119923</v>
+        <v>790.949517049702</v>
       </c>
       <c r="F32" t="n">
-        <v>42.02425610119923</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G32" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H32" t="n">
         <v>42.02425610119923</v>
@@ -6727,25 +6727,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S32" t="n">
-        <v>2101.212805059961</v>
+        <v>1979.997038481532</v>
       </c>
       <c r="T32" t="n">
-        <v>1876.853858790972</v>
+        <v>1755.638092212543</v>
       </c>
       <c r="U32" t="n">
-        <v>1876.853858790972</v>
+        <v>1500.752755926537</v>
       </c>
       <c r="V32" t="n">
-        <v>1876.853858790972</v>
+        <v>1163.773481822479</v>
       </c>
       <c r="W32" t="n">
-        <v>1514.318928648574</v>
+        <v>1163.773481822479</v>
       </c>
       <c r="X32" t="n">
-        <v>1132.288788170067</v>
+        <v>1163.773481822479</v>
       </c>
       <c r="Y32" t="n">
-        <v>738.7469327459049</v>
+        <v>1163.773481822479</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C33" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D33" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E33" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F33" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G33" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H33" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I33" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2784026343054</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L33" t="n">
-        <v>468.100247804421</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M33" t="n">
         <v>895.6512888769911</v>
@@ -6812,19 +6812,19 @@
         <v>1759.728214238687</v>
       </c>
       <c r="U33" t="n">
-        <v>1759.728214238687</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V33" t="n">
-        <v>1712.510642623821</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W33" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X33" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y33" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C34" t="n">
-        <v>1931.596835521642</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D34" t="n">
-        <v>1931.596835521642</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E34" t="n">
-        <v>1890.553963420402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F34" t="n">
-        <v>1738.073308446179</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K34" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L34" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M34" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N34" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O34" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V34" t="n">
-        <v>2101.212805059961</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W34" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X34" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y34" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1627.03715677681</v>
+        <v>1163.773481822479</v>
       </c>
       <c r="C35" t="n">
-        <v>1245.103398109617</v>
+        <v>1163.773481822479</v>
       </c>
       <c r="D35" t="n">
-        <v>872.2794333368408</v>
+        <v>790.949517049702</v>
       </c>
       <c r="E35" t="n">
-        <v>872.2794333368408</v>
+        <v>790.949517049702</v>
       </c>
       <c r="F35" t="n">
-        <v>458.1282426470112</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G35" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H35" t="n">
         <v>42.02425610119923</v>
@@ -6940,16 +6940,16 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K35" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L35" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M35" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N35" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O35" t="n">
         <v>1778.623654917371</v>
@@ -6964,25 +6964,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S35" t="n">
-        <v>2101.212805059961</v>
+        <v>2037.061303895492</v>
       </c>
       <c r="T35" t="n">
-        <v>2101.212805059961</v>
+        <v>1812.702357626503</v>
       </c>
       <c r="U35" t="n">
-        <v>2101.212805059961</v>
+        <v>1557.817021340498</v>
       </c>
       <c r="V35" t="n">
-        <v>1764.233530955903</v>
+        <v>1557.817021340498</v>
       </c>
       <c r="W35" t="n">
-        <v>1627.03715677681</v>
+        <v>1557.817021340498</v>
       </c>
       <c r="X35" t="n">
-        <v>1627.03715677681</v>
+        <v>1557.817021340498</v>
       </c>
       <c r="Y35" t="n">
-        <v>1627.03715677681</v>
+        <v>1557.817021340498</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C36" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D36" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E36" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F36" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G36" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H36" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I36" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K36" t="n">
-        <v>331.768955194494</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L36" t="n">
-        <v>697.5908003646097</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M36" t="n">
-        <v>737.8796590913968</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N36" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O36" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P36" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q36" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R36" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S36" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T36" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U36" t="n">
-        <v>1699.943945333632</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V36" t="n">
-        <v>1471.548322781966</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W36" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X36" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y36" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="37">
@@ -7131,7 +7131,7 @@
         <v>574.0835013471317</v>
       </c>
       <c r="V37" t="n">
-        <v>328.1806575838001</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="W37" t="n">
         <v>42.02425610119923</v>
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1823.345543186168</v>
+        <v>796.7819795411683</v>
       </c>
       <c r="C38" t="n">
-        <v>1823.345543186168</v>
+        <v>414.8482208739757</v>
       </c>
       <c r="D38" t="n">
-        <v>1772.703626424629</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E38" t="n">
-        <v>1377.917906530736</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F38" t="n">
-        <v>963.766715840906</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G38" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H38" t="n">
-        <v>214.8414548924033</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I38" t="n">
-        <v>42.02425610119928</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J38" t="n">
-        <v>114.022800374005</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K38" t="n">
         <v>354.1631724187877</v>
@@ -7198,28 +7198,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R38" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S38" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T38" t="n">
-        <v>1823.345543186168</v>
+        <v>1878.326324266133</v>
       </c>
       <c r="U38" t="n">
-        <v>1823.345543186168</v>
+        <v>1878.326324266133</v>
       </c>
       <c r="V38" t="n">
-        <v>1823.345543186168</v>
+        <v>1541.347050162074</v>
       </c>
       <c r="W38" t="n">
-        <v>1823.345543186168</v>
+        <v>1178.812120019675</v>
       </c>
       <c r="X38" t="n">
-        <v>1823.345543186168</v>
+        <v>796.7819795411683</v>
       </c>
       <c r="Y38" t="n">
-        <v>1823.345543186168</v>
+        <v>796.7819795411683</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C39" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D39" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E39" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F39" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G39" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H39" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I39" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K39" t="n">
-        <v>331.768955194494</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L39" t="n">
-        <v>697.5908003646097</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M39" t="n">
-        <v>1182.624153874836</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N39" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O39" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P39" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q39" t="n">
         <v>2101.212805059961</v>
@@ -7280,25 +7280,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S39" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T39" t="n">
-        <v>2101.212805059961</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U39" t="n">
-        <v>1940.906265175487</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V39" t="n">
-        <v>1712.510642623821</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W39" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X39" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y39" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="40">
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>55.64079773160731</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C40" t="n">
         <v>42.02425610119923</v>
@@ -7365,19 +7365,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U40" t="n">
-        <v>286.8932618362315</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V40" t="n">
-        <v>286.8932618362315</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="W40" t="n">
-        <v>286.8932618362315</v>
+        <v>273.2767202058235</v>
       </c>
       <c r="X40" t="n">
-        <v>55.64079773160731</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y40" t="n">
-        <v>55.64079773160731</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2101.212805059961</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="C41" t="n">
-        <v>1719.279046392769</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="D41" t="n">
-        <v>1346.455081619992</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="E41" t="n">
-        <v>951.6693617260989</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="F41" t="n">
-        <v>537.5181710362692</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G41" t="n">
-        <v>121.4141844904572</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H41" t="n">
-        <v>121.4141844904572</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I41" t="n">
         <v>42.02425610119923</v>
@@ -7435,28 +7435,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R41" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S41" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T41" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U41" t="n">
-        <v>2101.212805059961</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V41" t="n">
-        <v>2101.212805059961</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="W41" t="n">
-        <v>2101.212805059961</v>
+        <v>981.5663304887748</v>
       </c>
       <c r="X41" t="n">
-        <v>2101.212805059961</v>
+        <v>599.5361900102682</v>
       </c>
       <c r="Y41" t="n">
-        <v>2101.212805059961</v>
+        <v>458.1282426470112</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>921.3370166032433</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C42" t="n">
-        <v>759.6333438441981</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D42" t="n">
-        <v>620.7947068344101</v>
+        <v>189.052266044328</v>
       </c>
       <c r="E42" t="n">
-        <v>473.7666968912813</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F42" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G42" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H42" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I42" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L42" t="n">
-        <v>410.6179353667646</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M42" t="n">
-        <v>895.6512888769911</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N42" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O42" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P42" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q42" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R42" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S42" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T42" t="n">
-        <v>2101.212805059961</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U42" t="n">
-        <v>1940.906265175487</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V42" t="n">
-        <v>1712.510642623821</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W42" t="n">
-        <v>1471.194773857131</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X42" t="n">
-        <v>1273.277785734925</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y42" t="n">
-        <v>1080.756459384504</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>42.02425610119923</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="C43" t="n">
-        <v>42.02425610119923</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="D43" t="n">
-        <v>42.02425610119923</v>
+        <v>207.301845578582</v>
       </c>
       <c r="E43" t="n">
-        <v>42.02425610119923</v>
+        <v>207.301845578582</v>
       </c>
       <c r="F43" t="n">
-        <v>42.02425610119923</v>
+        <v>54.82119060435909</v>
       </c>
       <c r="G43" t="n">
-        <v>42.02425610119923</v>
+        <v>54.82119060435909</v>
       </c>
       <c r="H43" t="n">
         <v>42.02425610119923</v>
@@ -7596,25 +7596,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S43" t="n">
-        <v>574.0835013471317</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="T43" t="n">
-        <v>574.0835013471317</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="U43" t="n">
-        <v>286.8932618362315</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="V43" t="n">
-        <v>286.8932618362315</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="W43" t="n">
-        <v>42.02425610119923</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="X43" t="n">
-        <v>42.02425610119923</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="Y43" t="n">
-        <v>42.02425610119923</v>
+        <v>360.3737387508193</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1183.462700162095</v>
+        <v>1324.38220785618</v>
       </c>
       <c r="C44" t="n">
-        <v>801.528941494902</v>
+        <v>942.4484491889871</v>
       </c>
       <c r="D44" t="n">
-        <v>428.7049767221256</v>
+        <v>942.4484491889871</v>
       </c>
       <c r="E44" t="n">
-        <v>428.7049767221256</v>
+        <v>547.662729295094</v>
       </c>
       <c r="F44" t="n">
-        <v>42.02425610119924</v>
+        <v>547.662729295094</v>
       </c>
       <c r="G44" t="n">
-        <v>42.02425610119924</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H44" t="n">
-        <v>42.02425610119924</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I44" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J44" t="n">
         <v>114.0228003740049</v>
@@ -7675,25 +7675,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S44" t="n">
-        <v>1913.983829690315</v>
+        <v>1930.771294603675</v>
       </c>
       <c r="T44" t="n">
-        <v>1913.983829690315</v>
+        <v>1706.412348334686</v>
       </c>
       <c r="U44" t="n">
-        <v>1913.983829690315</v>
+        <v>1706.412348334686</v>
       </c>
       <c r="V44" t="n">
-        <v>1577.004555586257</v>
+        <v>1706.412348334686</v>
       </c>
       <c r="W44" t="n">
-        <v>1577.004555586257</v>
+        <v>1706.412348334686</v>
       </c>
       <c r="X44" t="n">
-        <v>1577.004555586257</v>
+        <v>1324.38220785618</v>
       </c>
       <c r="Y44" t="n">
-        <v>1183.462700162095</v>
+        <v>1324.38220785618</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>624.2883738632869</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C45" t="n">
-        <v>462.5847011042416</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D45" t="n">
-        <v>323.7460640944537</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E45" t="n">
-        <v>176.7180541513249</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F45" t="n">
         <v>42.02425610119923</v>
@@ -7754,25 +7754,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S45" t="n">
-        <v>2051.037518671235</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T45" t="n">
-        <v>1862.35241483722</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U45" t="n">
-        <v>1643.85762243553</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V45" t="n">
-        <v>1415.461999883864</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W45" t="n">
-        <v>1174.146131117174</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X45" t="n">
-        <v>976.229142994969</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y45" t="n">
-        <v>783.7078166445478</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>42.02425610119923</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="C46" t="n">
-        <v>42.02425610119923</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="D46" t="n">
-        <v>42.02425610119923</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="E46" t="n">
-        <v>42.02425610119923</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="F46" t="n">
         <v>42.02425610119923</v>
@@ -7833,25 +7833,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S46" t="n">
-        <v>534.0120246474009</v>
+        <v>481.6951505863223</v>
       </c>
       <c r="T46" t="n">
-        <v>534.0120246474009</v>
+        <v>481.6951505863223</v>
       </c>
       <c r="U46" t="n">
-        <v>534.0120246474009</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="V46" t="n">
-        <v>273.2767202058235</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="W46" t="n">
-        <v>273.2767202058235</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="X46" t="n">
-        <v>42.02425610119923</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="Y46" t="n">
-        <v>42.02425610119923</v>
+        <v>194.5049110754221</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>421.3890363425141</v>
+        <v>421.3890363425138</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
@@ -8066,16 +8066,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>605.4165828749999</v>
+        <v>156.1797194573845</v>
       </c>
       <c r="N3" t="n">
-        <v>479.0556164367791</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
         <v>421.3890363425141</v>
@@ -8236,7 +8236,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8297,16 +8297,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>547.3536410187814</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>623.1450866466196</v>
+        <v>333.2735058407155</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8473,7 +8473,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q8" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8531,13 +8531,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
-        <v>325.5269987024317</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
@@ -8549,10 +8549,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
@@ -8707,7 +8707,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3383206229274</v>
+        <v>418.3383206229271</v>
       </c>
       <c r="Q11" t="n">
         <v>276.0094878578761</v>
@@ -8768,10 +8768,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8786,7 +8786,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
         <v>113.7351914448925</v>
@@ -9011,13 +9011,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M15" t="n">
-        <v>605.4165828749999</v>
+        <v>586.5595090565984</v>
       </c>
       <c r="N15" t="n">
-        <v>394.1362801165803</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9026,7 +9026,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9242,7 +9242,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9254,16 +9254,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>394.1362801165803</v>
+        <v>570.0697896776412</v>
       </c>
       <c r="O18" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9421,7 +9421,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9485,7 +9485,7 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L21" t="n">
-        <v>325.5269987024317</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
@@ -9500,7 +9500,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>116.5350238645387</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9719,7 +9719,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9728,7 +9728,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>394.1362801165803</v>
+        <v>466.5796364545544</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9737,7 +9737,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9953,7 +9953,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
         <v>111.9961691666667</v>
@@ -9971,10 +9971,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>414.0015992319183</v>
+        <v>196.5733747639883</v>
       </c>
       <c r="Q27" t="n">
-        <v>116.5350238645387</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10132,7 +10132,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q29" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R29" t="n">
         <v>85.43134583487716</v>
@@ -10190,7 +10190,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10199,7 +10199,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>156.1797194573845</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10208,10 +10208,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>184.992792701879</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10427,16 +10427,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K33" t="n">
-        <v>111.9961691666667</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>547.3536410187814</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
         <v>623.1450866466196</v>
@@ -10588,7 +10588,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
-        <v>421.3890363425141</v>
+        <v>421.3890363425138</v>
       </c>
       <c r="L35" t="n">
         <v>542.9595789155856</v>
@@ -10664,16 +10664,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>156.1797194573845</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
@@ -10685,7 +10685,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10901,10 +10901,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10913,7 +10913,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>173.9082232290041</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10922,7 +10922,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11138,13 +11138,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K42" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L42" t="n">
-        <v>424.0295070382783</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11159,7 +11159,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>279.6881035209254</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>370.4955777554994</v>
       </c>
       <c r="G2" t="n">
         <v>411.9429466803539</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -22628,16 +22628,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>38.50770056809694</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>68.32860979320854</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -22691,10 +22691,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -22752,22 +22752,22 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>63.70773940111974</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>14.68413607146334</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>369.0957251250487</v>
@@ -22795,16 +22795,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>33.47847944056645</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>52.68624593504569</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -22865,7 +22865,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>106.4411796807437</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22880,10 +22880,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>38.01217785743678</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22931,7 +22931,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22956,16 +22956,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4884972741916158</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,13 +22989,13 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>63.70773940111974</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
@@ -23023,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
@@ -23035,10 +23035,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23077,19 +23077,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>130.8653954185971</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>183.1723687120777</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -23105,22 +23105,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>82.92511742169421</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>91.58892292980661</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23193,16 +23193,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4884972741916158</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
@@ -23235,10 +23235,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>163.7341992912452</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -23260,19 +23260,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>369.0957251250487</v>
+        <v>143.5193277009334</v>
       </c>
       <c r="E11" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>329.4930616586638</v>
@@ -23308,25 +23308,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
-        <v>81.54720002385497</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="12">
@@ -23342,19 +23342,19 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>127.4412149769483</v>
+        <v>57.18054173895115</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>67.69846245683961</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C13" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>151.5411742405149</v>
@@ -23436,10 +23436,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I13" t="n">
-        <v>73.23022383480694</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T13" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V13" t="n">
-        <v>258.1279513971616</v>
+        <v>130.1562720991029</v>
       </c>
       <c r="W13" t="n">
         <v>283.2948374677749</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>369.0957251250487</v>
+        <v>272.9234041385208</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>329.4930616586638</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
-        <v>171.2791036629602</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="15">
@@ -23579,22 +23579,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>27.43752473892766</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>13.72965554294878</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T16" t="n">
-        <v>101.8597073339676</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U16" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X16" t="n">
         <v>228.939939463578</v>
@@ -23737,10 +23737,10 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>390.8378626949542</v>
+        <v>289.2697716898969</v>
       </c>
       <c r="F17" t="n">
         <v>410.0096787829314</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>171.2791036629602</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -23816,19 +23816,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.4412149769483</v>
+        <v>116.3669679549548</v>
       </c>
       <c r="H18" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>67.69846245683961</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="W19" t="n">
-        <v>40.8745217900929</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
@@ -23974,22 +23974,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>203.0980751595079</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>305.0689231603019</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
         <v>358.909580840975</v>
@@ -24053,10 +24053,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24065,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>44.96967196487807</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>116.7927962080469</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24135,13 +24135,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>150.5800509907646</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H22" t="n">
         <v>157.7789187685189</v>
@@ -24174,22 +24174,22 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T22" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>390.1031041228389</v>
+        <v>1.990097350999292</v>
       </c>
       <c r="C23" t="n">
         <v>378.1144210805207</v>
@@ -24214,7 +24214,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>239.5748804373914</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I23" t="n">
         <v>171.0890268032919</v>
@@ -24256,25 +24256,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U23" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -24287,10 +24287,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>154.8787397158759</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>27.43752473892768</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24299,7 +24299,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
         <v>98.93847887876893</v>
@@ -24369,10 +24369,10 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>59.60978265912726</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -24414,13 +24414,13 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U25" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
@@ -24429,7 +24429,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>144.6211152929321</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
         <v>219.8148072196457</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
         <v>378.1144210805207</v>
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>284.5751544478766</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>171.0890268032919</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S26" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>222.1153568062989</v>
+        <v>87.09521427320982</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
         <v>389.6064368699203</v>
@@ -24527,13 +24527,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>104.1560981808818</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>176.7061603308782</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
-        <v>150.9558484244806</v>
+        <v>113.1923106806471</v>
       </c>
       <c r="G28" t="n">
         <v>167.2305511458285</v>
       </c>
       <c r="H28" t="n">
-        <v>66.89977733135183</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I28" t="n">
         <v>142.7610139533483</v>
@@ -24654,13 +24654,13 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T28" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>283.2948374677749</v>
@@ -24682,19 +24682,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>141.2177997232729</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>177.3287215134284</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>329.4930616586638</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T29" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24770,7 +24770,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>133.3468600696244</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G30" t="n">
         <v>127.4412149769483</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
-        <v>27.43752473892749</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.9239208208702</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
         <v>167.9198098429365</v>
@@ -24897,16 +24897,16 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>14.68413607146334</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>78.46207532510101</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>390.8378626949542</v>
@@ -24931,10 +24931,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>171.0890268032919</v>
@@ -24967,25 +24967,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
-        <v>185.3566856159496</v>
+        <v>65.35307670330454</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -25007,16 +25007,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25052,10 +25052,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>179.3662704274322</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
-        <v>109.856480716067</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H34" t="n">
         <v>157.7789187685189</v>
@@ -25134,10 +25134,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V34" t="n">
-        <v>258.1279513971616</v>
+        <v>14.68413607146334</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>228.939939463578</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>171.0890268032919</v>
@@ -25204,19 +25204,19 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
-        <v>185.3566856159496</v>
+        <v>121.8466994631253</v>
       </c>
       <c r="T35" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>223.0851704036733</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
         <v>378.2098390737216</v>
@@ -25244,16 +25244,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25289,13 +25289,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>238.5526966434358</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V37" t="n">
-        <v>14.68413607146334</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>14.6841360714634</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
@@ -25393,25 +25393,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>318.9602275311245</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T38" t="n">
-        <v>222.1153568062989</v>
+        <v>1.457740820408532</v>
       </c>
       <c r="U38" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>389.6064368699203</v>
@@ -25481,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,13 +25520,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>154.4394336288325</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -25605,13 +25605,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>243.6240755350414</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25630,16 +25630,16 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I41" t="n">
-        <v>92.49299769792654</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>389.6064368699203</v>
+        <v>249.6125689802959</v>
       </c>
     </row>
     <row r="42">
@@ -25712,22 +25712,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>27.43752473892768</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.2305511458285</v>
       </c>
       <c r="H43" t="n">
-        <v>157.7789187685189</v>
+        <v>145.1099536103906</v>
       </c>
       <c r="I43" t="n">
         <v>142.7610139533483</v>
@@ -25836,19 +25836,19 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V43" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>40.8745217900929</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
@@ -25870,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>27.19576536821427</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H44" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>16.61959026422636</v>
       </c>
       <c r="T44" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -25955,7 +25955,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G45" t="n">
         <v>127.4412149769483</v>
@@ -25994,7 +25994,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
-        <v>101.597958592548</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.2305511458285</v>
@@ -26073,22 +26073,22 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
-        <v>171.9019030376159</v>
+        <v>120.108197717148</v>
       </c>
       <c r="T46" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U46" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
         <v>219.8148072196457</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>653322.3713799926</v>
+        <v>653322.3713799927</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>653322.3713799925</v>
+        <v>653322.3713799927</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>653322.3713799926</v>
+        <v>653322.3713799927</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>653322.3713799927</v>
+        <v>653322.3713799925</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>653322.3713799925</v>
+        <v>653322.3713799926</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>653322.3713799923</v>
+        <v>653322.3713799925</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>653322.3713799926</v>
+        <v>653322.3713799927</v>
       </c>
     </row>
     <row r="16">
@@ -26328,7 +26328,7 @@
         <v>132852.144310185</v>
       </c>
       <c r="G2" t="n">
-        <v>132852.1443101849</v>
+        <v>132852.144310185</v>
       </c>
       <c r="H2" t="n">
         <v>132852.144310185</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11603.65937297561</v>
+        <v>11603.65937297562</v>
       </c>
       <c r="C4" t="n">
-        <v>11603.65937297561</v>
+        <v>11603.65937297562</v>
       </c>
       <c r="D4" t="n">
         <v>11603.65937297562</v>
       </c>
       <c r="E4" t="n">
-        <v>11603.65937297561</v>
+        <v>11603.65937297562</v>
       </c>
       <c r="F4" t="n">
         <v>11603.65937297562</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-120358.7344172294</v>
+        <v>-128478.3239037352</v>
       </c>
       <c r="C6" t="n">
-        <v>55682.45030029802</v>
+        <v>47562.86081379214</v>
       </c>
       <c r="D6" t="n">
-        <v>55682.45030029793</v>
+        <v>47562.86081379223</v>
       </c>
       <c r="E6" t="n">
-        <v>89310.05030029797</v>
+        <v>81190.46081379223</v>
       </c>
       <c r="F6" t="n">
-        <v>89310.05030029794</v>
+        <v>81190.46081379218</v>
       </c>
       <c r="G6" t="n">
-        <v>89310.05030029791</v>
+        <v>81190.46081379215</v>
       </c>
       <c r="H6" t="n">
-        <v>89310.05030029797</v>
+        <v>81190.46081379215</v>
       </c>
       <c r="I6" t="n">
-        <v>89310.05030029794</v>
+        <v>81190.46081379215</v>
       </c>
       <c r="J6" t="n">
-        <v>-48132.38049147915</v>
+        <v>-56251.96997798493</v>
       </c>
       <c r="K6" t="n">
-        <v>89310.05030029794</v>
+        <v>81190.4608137922</v>
       </c>
       <c r="L6" t="n">
-        <v>89310.05030029803</v>
+        <v>81190.46081379218</v>
       </c>
       <c r="M6" t="n">
-        <v>89310.05030029794</v>
+        <v>81190.46081379223</v>
       </c>
       <c r="N6" t="n">
-        <v>89310.050300298</v>
+        <v>81190.46081379218</v>
       </c>
       <c r="O6" t="n">
-        <v>89310.05030029797</v>
+        <v>81190.46081379218</v>
       </c>
       <c r="P6" t="n">
-        <v>89310.05030029797</v>
+        <v>81190.46081379218</v>
       </c>
     </row>
   </sheetData>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>242.5660323684674</v>
+        <v>242.5660323684671</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
@@ -34786,16 +34786,16 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>489.93268031336</v>
+        <v>40.69581689574456</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3404753690708</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
         <v>242.5660323684674</v>
@@ -34956,7 +34956,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>431.8697384571415</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>516.4299455789112</v>
+        <v>226.5583647730072</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35193,7 +35193,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
-        <v>212.9515651312839</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
@@ -35269,10 +35269,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>305.147393207775</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
         <v>242.5660323684674</v>
@@ -35427,7 +35427,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
-        <v>230.4615115717709</v>
+        <v>230.4615115717706</v>
       </c>
       <c r="Q11" t="n">
         <v>95.38611483488586</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>231.8086389496855</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L12" t="n">
         <v>369.5170153233491</v>
@@ -35506,7 +35506,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P12" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>489.93268031336</v>
+        <v>471.0756064949585</v>
       </c>
       <c r="N15" t="n">
-        <v>287.421139048872</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O15" t="n">
         <v>396.1615664486372</v>
@@ -35746,7 +35746,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
         <v>242.5660323684674</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
@@ -35974,16 +35974,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N18" t="n">
-        <v>287.421139048872</v>
+        <v>463.3546486099329</v>
       </c>
       <c r="O18" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>212.9515651312839</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M21" t="n">
         <v>489.93268031336</v>
@@ -36220,7 +36220,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.3652826117113</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>369.5170153233491</v>
@@ -36448,7 +36448,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N24" t="n">
-        <v>287.421139048872</v>
+        <v>359.864495386846</v>
       </c>
       <c r="O24" t="n">
         <v>396.1615664486372</v>
@@ -36457,7 +36457,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P27" t="n">
-        <v>305.147393207775</v>
+        <v>87.71916873984496</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.799832419646239</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q29" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K30" t="n">
         <v>231.8086389496855</v>
@@ -36919,7 +36919,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M30" t="n">
-        <v>489.93268031336</v>
+        <v>40.69581689574456</v>
       </c>
       <c r="N30" t="n">
         <v>516.4299455789112</v>
@@ -36928,10 +36928,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P30" t="n">
-        <v>76.13858667773572</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L33" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M33" t="n">
-        <v>431.8697384571415</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N33" t="n">
         <v>516.4299455789112</v>
@@ -37308,7 +37308,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>242.5660323684674</v>
+        <v>242.5660323684671</v>
       </c>
       <c r="L35" t="n">
         <v>351.3993667524709</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>231.8086389496855</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L36" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M36" t="n">
-        <v>40.69581689574456</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N36" t="n">
         <v>516.4299455789112</v>
@@ -37405,7 +37405,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>231.8086389496855</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L39" t="n">
         <v>369.5170153233491</v>
@@ -37633,7 +37633,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N39" t="n">
-        <v>67.19308216129573</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O39" t="n">
         <v>396.1615664486372</v>
@@ -37642,7 +37642,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>311.4540734671306</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M42" t="n">
         <v>489.93268031336</v>
@@ -37879,7 +37879,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
